--- a/events/sub-test_task-sentences_events.xlsx
+++ b/events/sub-test_task-sentences_events.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="52" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="679" uniqueCount="8">
   <si>
     <t>TR</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>Active Stimuli</t>
+  </si>
+  <si>
+    <t>Cross</t>
+  </si>
+  <si>
+    <t>Neutral Stimuli</t>
   </si>
 </sst>
 </file>
@@ -82,11 +88,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="true"/>
-    <col min="2" max="2" width="13.5703125" customWidth="true"/>
-    <col min="3" max="3" width="12.85546875" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="13.42578125" customWidth="true"/>
+    <col min="1" max="1" width="3.109375" customWidth="true"/>
+    <col min="2" max="2" width="12.109375" customWidth="true"/>
+    <col min="3" max="3" width="11.5546875" customWidth="true"/>
+    <col min="4" max="4" width="11.5546875" customWidth="true"/>
+    <col min="5" max="5" width="11.88671875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -111,13 +117,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>1.9967132000019774</v>
+        <v>1.9998282999986259</v>
       </c>
       <c r="C2" s="0">
-        <v>934480.68609500001</v>
+        <v>22520.735716199997</v>
       </c>
       <c r="D2" s="0">
-        <v>934484.68988720002</v>
+        <v>22524.737346099999</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>5</v>
@@ -128,13 +134,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>3.9964576000347733</v>
+        <v>3.9993566000011924</v>
       </c>
       <c r="C3" s="0">
-        <v>934480.686154</v>
+        <v>22520.7359922</v>
       </c>
       <c r="D3" s="0">
-        <v>934486.68963160005</v>
+        <v>22526.736874400001</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>5</v>
@@ -145,13 +151,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>5.9953248000238091</v>
+        <v>5.9990049000007275</v>
       </c>
       <c r="C4" s="0">
-        <v>934480.68660510005</v>
+        <v>22520.7361217</v>
       </c>
       <c r="D4" s="0">
-        <v>934488.68849880004</v>
+        <v>22528.736522700001</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>5</v>
@@ -162,13 +168,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>7.9957216000184417</v>
+        <v>7.9992920000004233</v>
       </c>
       <c r="C5" s="0">
-        <v>934480.68660630006</v>
+        <v>22520.736121599999</v>
       </c>
       <c r="D5" s="0">
-        <v>934490.68889560003</v>
+        <v>22530.736809800001</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>5</v>
@@ -176,190 +182,168 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6" s="0">
-        <v>9.9952970999293029</v>
+        <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>934480.68660529994</v>
+        <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>934492.68847109994</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B7" s="0">
-        <v>11.99499040003866</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>934480.68660260004</v>
+        <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>934494.68816440005</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B8" s="0">
-        <v>13.995282799936831</v>
+        <v>0</v>
       </c>
       <c r="C8" s="0">
-        <v>934480.68660259992</v>
+        <v>0</v>
       </c>
       <c r="D8" s="0">
-        <v>934496.68845679995</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B9" s="0">
-        <v>15.995782800018787</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0">
-        <v>934480.68659110006</v>
+        <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>934498.68895680003</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B10" s="0">
-        <v>17.997794199967757</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>934480.68660270004</v>
+        <v>0</v>
       </c>
       <c r="D10" s="0">
-        <v>934500.69096819998</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B11" s="0">
-        <v>19.995780400000513</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0">
-        <v>934480.68660580006</v>
+        <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>934502.68895440002</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B12" s="0">
-        <v>21.99546130001545</v>
+        <v>0</v>
       </c>
       <c r="C12" s="0">
-        <v>934480.68660380004</v>
+        <v>0</v>
       </c>
       <c r="D12" s="0">
-        <v>934504.68863530003</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B13" s="0">
-        <v>23.994809999945574</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0">
-        <v>934480.68660629995</v>
+        <v>0</v>
       </c>
       <c r="D13" s="0">
-        <v>934506.68798399996</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B14" s="0">
-        <v>25.996047999942675</v>
+        <v>0</v>
       </c>
       <c r="C14" s="0">
-        <v>934480.68660379993</v>
+        <v>0</v>
       </c>
       <c r="D14" s="0">
-        <v>934508.68922199996</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B15" s="0">
-        <v>27.995392399956472</v>
+        <v>0</v>
       </c>
       <c r="C15" s="0">
-        <v>934480.68660319992</v>
+        <v>0</v>
       </c>
       <c r="D15" s="0">
-        <v>934510.68856639997</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B16" s="0">
-        <v>29.996707499958575</v>
+        <v>0</v>
       </c>
       <c r="C16" s="0">
-        <v>934480.68659199995</v>
+        <v>0</v>
       </c>
       <c r="D16" s="0">
-        <v>934512.68988149997</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0">

--- a/events/sub-test_task-sentences_events.xlsx
+++ b/events/sub-test_task-sentences_events.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="679" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1798" uniqueCount="8">
   <si>
     <t>TR</t>
   </si>
@@ -117,13 +117,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>1.9998282999986259</v>
+        <v>1.9997048999648541</v>
       </c>
       <c r="C2" s="0">
-        <v>22520.735716199997</v>
+        <v>2018076.0184128999</v>
       </c>
       <c r="D2" s="0">
-        <v>22524.737346099999</v>
+        <v>2018078.0202494999</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>5</v>
@@ -134,13 +134,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>3.9993566000011924</v>
+        <v>3.9987212000414729</v>
       </c>
       <c r="C3" s="0">
-        <v>22520.7359922</v>
+        <v>2018076.0185197999</v>
       </c>
       <c r="D3" s="0">
-        <v>22526.736874400001</v>
+        <v>2018080.0192658</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>5</v>
@@ -151,13 +151,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>5.9990049000007275</v>
+        <v>5.998412000015378</v>
       </c>
       <c r="C4" s="0">
-        <v>22520.7361217</v>
+        <v>2018076.0186335</v>
       </c>
       <c r="D4" s="0">
-        <v>22528.736522700001</v>
+        <v>2018082.0189566</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>5</v>
@@ -168,13 +168,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>7.9992920000004233</v>
+        <v>7.9983878000639379</v>
       </c>
       <c r="C5" s="0">
-        <v>22520.736121599999</v>
+        <v>2018076.0186334001</v>
       </c>
       <c r="D5" s="0">
-        <v>22530.736809800001</v>
+        <v>2018084.0189324</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>5</v>
@@ -182,213 +182,241 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0</v>
+        <v>9.9993088999763131</v>
       </c>
       <c r="C6" s="0">
-        <v>0</v>
+        <v>2018076.0186073</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0"/>
+        <v>2018086.0198535</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0</v>
+        <v>11.998830100055784</v>
       </c>
       <c r="C7" s="0">
-        <v>0</v>
+        <v>2018076.0186324001</v>
       </c>
       <c r="D7" s="0">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0"/>
+        <v>2018088.0193747</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0</v>
+        <v>13.999511400004849</v>
       </c>
       <c r="C8" s="0">
-        <v>0</v>
+        <v>2018076.0186307</v>
       </c>
       <c r="D8" s="0">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0"/>
+        <v>2018090.020056</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0</v>
+        <v>15.998318700119853</v>
       </c>
       <c r="C9" s="0">
-        <v>0</v>
+        <v>2018076.0186332001</v>
       </c>
       <c r="D9" s="0">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0"/>
+        <v>2018092.0188633001</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>0</v>
+        <v>17.998543200083077</v>
       </c>
       <c r="C10" s="0">
-        <v>0</v>
+        <v>2018076.0186333</v>
       </c>
       <c r="D10" s="0">
-        <v>0</v>
-      </c>
-      <c r="E10" s="0"/>
+        <v>2018094.0190878001</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>0</v>
+        <v>19.998396700015292</v>
       </c>
       <c r="C11" s="0">
-        <v>0</v>
+        <v>2018076.0186331</v>
       </c>
       <c r="D11" s="0">
-        <v>0</v>
-      </c>
-      <c r="E11" s="0"/>
+        <v>2018096.0189413</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>0</v>
+        <v>21.998372799949721</v>
       </c>
       <c r="C12" s="0">
-        <v>0</v>
+        <v>2018076.0186329</v>
       </c>
       <c r="D12" s="0">
-        <v>0</v>
-      </c>
-      <c r="E12" s="0"/>
+        <v>2018098.0189173999</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>0</v>
+        <v>23.998295200057328</v>
       </c>
       <c r="C13" s="0">
-        <v>0</v>
+        <v>2018076.0186334001</v>
       </c>
       <c r="D13" s="0">
-        <v>0</v>
-      </c>
-      <c r="E13" s="0"/>
+        <v>2018100.0188398</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>0</v>
+        <v>25.998398100025952</v>
       </c>
       <c r="C14" s="0">
-        <v>0</v>
+        <v>2018076.0186331</v>
       </c>
       <c r="D14" s="0">
-        <v>0</v>
-      </c>
-      <c r="E14" s="0"/>
+        <v>2018102.0189427</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>0</v>
+        <v>27.998278399929404</v>
       </c>
       <c r="C15" s="0">
-        <v>0</v>
+        <v>2018076.0186333</v>
       </c>
       <c r="D15" s="0">
-        <v>0</v>
-      </c>
-      <c r="E15" s="0"/>
+        <v>2018104.0188229999</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>0</v>
+        <v>29.998560100095347</v>
       </c>
       <c r="C16" s="0">
-        <v>0</v>
+        <v>2018076.0186313</v>
       </c>
       <c r="D16" s="0">
-        <v>0</v>
-      </c>
-      <c r="E16" s="0"/>
+        <v>2018106.0191047001</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>0</v>
+        <v>31.998352100141346</v>
       </c>
       <c r="C17" s="0">
-        <v>0</v>
+        <v>2018076.0186328001</v>
       </c>
       <c r="D17" s="0">
-        <v>0</v>
-      </c>
-      <c r="E17" s="0"/>
+        <v>2018108.0188967001</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>0</v>
+        <v>33.998800799949095</v>
       </c>
       <c r="C18" s="0">
-        <v>0</v>
+        <v>2018076.018499</v>
       </c>
       <c r="D18" s="0">
-        <v>0</v>
-      </c>
-      <c r="E18" s="0"/>
+        <v>2018110.0193453999</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>0</v>
+        <v>35.998359200078994</v>
       </c>
       <c r="C19" s="0">
-        <v>0</v>
+        <v>2018076.0186292001</v>
       </c>
       <c r="D19" s="0">
-        <v>0</v>
-      </c>
-      <c r="E19" s="0"/>
+        <v>2018112.0189038001</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0">

--- a/events/sub-test_task-sentences_events.xlsx
+++ b/events/sub-test_task-sentences_events.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1798" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1818" uniqueCount="8">
   <si>
     <t>TR</t>
   </si>
@@ -117,13 +117,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>1.9997048999648541</v>
+        <v>1.9995574000058696</v>
       </c>
       <c r="C2" s="0">
-        <v>2018076.0184128999</v>
+        <v>83803.127819800007</v>
       </c>
       <c r="D2" s="0">
-        <v>2018078.0202494999</v>
+        <v>83805.129512700005</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>5</v>
@@ -134,13 +134,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>3.9987212000414729</v>
+        <v>3.998875000004773</v>
       </c>
       <c r="C3" s="0">
-        <v>2018076.0185197999</v>
+        <v>83803.128058300004</v>
       </c>
       <c r="D3" s="0">
-        <v>2018080.0192658</v>
+        <v>83807.128830300004</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>5</v>
@@ -151,13 +151,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>5.998412000015378</v>
+        <v>5.9985075000004144</v>
       </c>
       <c r="C4" s="0">
-        <v>2018076.0186335</v>
+        <v>83803.128059099996</v>
       </c>
       <c r="D4" s="0">
-        <v>2018082.0189566</v>
+        <v>83809.128462799999</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>5</v>
@@ -168,13 +168,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>7.9983878000639379</v>
+        <v>7.9992842000065139</v>
       </c>
       <c r="C5" s="0">
-        <v>2018076.0186334001</v>
+        <v>83803.128056300004</v>
       </c>
       <c r="D5" s="0">
-        <v>2018084.0189324</v>
+        <v>83811.129239500005</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>5</v>
@@ -185,13 +185,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>9.9993088999763131</v>
+        <v>9.9985098000033759</v>
       </c>
       <c r="C6" s="0">
-        <v>2018076.0186073</v>
+        <v>83803.128059199997</v>
       </c>
       <c r="D6" s="0">
-        <v>2018086.0198535</v>
+        <v>83813.128465100002</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>5</v>
@@ -202,13 +202,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>11.998830100055784</v>
+        <v>11.998405100006494</v>
       </c>
       <c r="C7" s="0">
-        <v>2018076.0186324001</v>
+        <v>83803.128059200011</v>
       </c>
       <c r="D7" s="0">
-        <v>2018088.0193747</v>
+        <v>83815.128360400005</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>5</v>
@@ -219,13 +219,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>13.999511400004849</v>
+        <v>13.998957000003429</v>
       </c>
       <c r="C8" s="0">
-        <v>2018076.0186307</v>
+        <v>83803.128057199996</v>
       </c>
       <c r="D8" s="0">
-        <v>2018090.020056</v>
+        <v>83817.128912300002</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>5</v>
@@ -236,13 +236,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>15.998318700119853</v>
+        <v>15.998801499998081</v>
       </c>
       <c r="C9" s="0">
-        <v>2018076.0186332001</v>
+        <v>83803.128057099995</v>
       </c>
       <c r="D9" s="0">
-        <v>2018092.0188633001</v>
+        <v>83819.128756799997</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>5</v>
@@ -253,13 +253,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>17.998543200083077</v>
+        <v>17.998547299997881</v>
       </c>
       <c r="C10" s="0">
-        <v>2018076.0186333</v>
+        <v>83803.128059199997</v>
       </c>
       <c r="D10" s="0">
-        <v>2018094.0190878001</v>
+        <v>83821.128502599997</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>5</v>
@@ -270,13 +270,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>19.998396700015292</v>
+        <v>19.998367299995152</v>
       </c>
       <c r="C11" s="0">
-        <v>2018076.0186331</v>
+        <v>83803.128059499999</v>
       </c>
       <c r="D11" s="0">
-        <v>2018096.0189413</v>
+        <v>83823.128322599994</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>5</v>
@@ -287,13 +287,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>21.998372799949721</v>
+        <v>21.998547600000165</v>
       </c>
       <c r="C12" s="0">
-        <v>2018076.0186329</v>
+        <v>83803.128058300004</v>
       </c>
       <c r="D12" s="0">
-        <v>2018098.0189173999</v>
+        <v>83825.128502899999</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>5</v>
@@ -304,13 +304,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>23.998295200057328</v>
+        <v>23.998453299995163</v>
       </c>
       <c r="C13" s="0">
-        <v>2018076.0186334001</v>
+        <v>83803.128058899994</v>
       </c>
       <c r="D13" s="0">
-        <v>2018100.0188398</v>
+        <v>83827.128408599994</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>5</v>
@@ -321,13 +321,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>25.998398100025952</v>
+        <v>25.998485300005996</v>
       </c>
       <c r="C14" s="0">
-        <v>2018076.0186331</v>
+        <v>83803.128058900009</v>
       </c>
       <c r="D14" s="0">
-        <v>2018102.0189427</v>
+        <v>83829.128440600005</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>5</v>
@@ -338,13 +338,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>27.998278399929404</v>
+        <v>27.998714700006531</v>
       </c>
       <c r="C15" s="0">
-        <v>2018076.0186333</v>
+        <v>83803.128057599999</v>
       </c>
       <c r="D15" s="0">
-        <v>2018104.0188229999</v>
+        <v>83831.128670000006</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>5</v>
@@ -355,13 +355,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>29.998560100095347</v>
+        <v>29.998485899996012</v>
       </c>
       <c r="C16" s="0">
-        <v>2018076.0186313</v>
+        <v>83803.128059099996</v>
       </c>
       <c r="D16" s="0">
-        <v>2018106.0191047001</v>
+        <v>83833.128441199995</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>5</v>
@@ -369,54 +369,48 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B17" s="0">
-        <v>31.998352100141346</v>
+        <v>0</v>
       </c>
       <c r="C17" s="0">
-        <v>2018076.0186328001</v>
+        <v>0</v>
       </c>
       <c r="D17" s="0">
-        <v>2018108.0188967001</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B18" s="0">
-        <v>33.998800799949095</v>
+        <v>0</v>
       </c>
       <c r="C18" s="0">
-        <v>2018076.018499</v>
+        <v>0</v>
       </c>
       <c r="D18" s="0">
-        <v>2018110.0193453999</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B19" s="0">
-        <v>35.998359200078994</v>
+        <v>0</v>
       </c>
       <c r="C19" s="0">
-        <v>2018076.0186292001</v>
+        <v>0</v>
       </c>
       <c r="D19" s="0">
-        <v>2018112.0189038001</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0">

--- a/events/sub-test_task-sentences_events.xlsx
+++ b/events/sub-test_task-sentences_events.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1818" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2079" uniqueCount="8">
   <si>
     <t>TR</t>
   </si>
@@ -88,11 +88,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="true"/>
+    <col min="1" max="1" width="4" customWidth="true"/>
     <col min="2" max="2" width="12.109375" customWidth="true"/>
     <col min="3" max="3" width="11.5546875" customWidth="true"/>
-    <col min="4" max="4" width="11.5546875" customWidth="true"/>
-    <col min="5" max="5" width="11.88671875" customWidth="true"/>
+    <col min="4" max="4" width="12.21875" customWidth="true"/>
+    <col min="5" max="5" width="13" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -117,13 +117,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>1.9995574000058696</v>
+        <v>2.0007586000001538</v>
       </c>
       <c r="C2" s="0">
-        <v>83803.127819800007</v>
+        <v>787.32543020000003</v>
       </c>
       <c r="D2" s="0">
-        <v>83805.129512700005</v>
+        <v>4478.5043931999999</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>5</v>
@@ -134,13 +134,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>3.998875000004773</v>
+        <v>4.0007613000007041</v>
       </c>
       <c r="C3" s="0">
-        <v>83803.128058300004</v>
+        <v>787.32544480000024</v>
       </c>
       <c r="D3" s="0">
-        <v>83807.128830300004</v>
+        <v>4480.5043959000004</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>5</v>
@@ -151,13 +151,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>5.9985075000004144</v>
+        <v>6.0005128000002514</v>
       </c>
       <c r="C4" s="0">
-        <v>83803.128059099996</v>
+        <v>787.32541700000002</v>
       </c>
       <c r="D4" s="0">
-        <v>83809.128462799999</v>
+        <v>4482.5041474</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>5</v>
@@ -168,13 +168,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>7.9992842000065139</v>
+        <v>8.0011791000006269</v>
       </c>
       <c r="C5" s="0">
-        <v>83803.128056300004</v>
+        <v>787.3254364000004</v>
       </c>
       <c r="D5" s="0">
-        <v>83811.129239500005</v>
+        <v>4484.5048137000003</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>5</v>
@@ -185,13 +185,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>9.9985098000033759</v>
+        <v>10.000526200000422</v>
       </c>
       <c r="C6" s="0">
-        <v>83803.128059199997</v>
+        <v>787.32534430000032</v>
       </c>
       <c r="D6" s="0">
-        <v>83813.128465100002</v>
+        <v>4486.5041608000001</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>5</v>
@@ -202,13 +202,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>11.998405100006494</v>
+        <v>12.000380200000109</v>
       </c>
       <c r="C7" s="0">
-        <v>83803.128059200011</v>
+        <v>787.32545879999998</v>
       </c>
       <c r="D7" s="0">
-        <v>83815.128360400005</v>
+        <v>4488.5040147999998</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>5</v>
@@ -219,13 +219,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>13.998957000003429</v>
+        <v>13.999905100000433</v>
       </c>
       <c r="C8" s="0">
-        <v>83803.128057199996</v>
+        <v>787.32546520000005</v>
       </c>
       <c r="D8" s="0">
-        <v>83817.128912300002</v>
+        <v>4490.5035397000001</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>5</v>
@@ -236,13 +236,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>15.998801499998081</v>
+        <v>16.000156200000674</v>
       </c>
       <c r="C9" s="0">
-        <v>83803.128057099995</v>
+        <v>787.32546240000056</v>
       </c>
       <c r="D9" s="0">
-        <v>83819.128756799997</v>
+        <v>4492.5037908000004</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>5</v>
@@ -253,13 +253,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>17.998547299997881</v>
+        <v>17.999859200000174</v>
       </c>
       <c r="C10" s="0">
-        <v>83803.128059199997</v>
+        <v>787.32546529999991</v>
       </c>
       <c r="D10" s="0">
-        <v>83821.128502599997</v>
+        <v>4494.5034937999999</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>5</v>
@@ -270,13 +270,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>19.998367299995152</v>
+        <v>20.000564200000554</v>
       </c>
       <c r="C11" s="0">
-        <v>83803.128059499999</v>
+        <v>787.32546130000037</v>
       </c>
       <c r="D11" s="0">
-        <v>83823.128322599994</v>
+        <v>4496.5041988000003</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>5</v>
@@ -287,13 +287,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>21.998547600000165</v>
+        <v>21.999938500000098</v>
       </c>
       <c r="C12" s="0">
-        <v>83803.128058300004</v>
+        <v>787.32546469999988</v>
       </c>
       <c r="D12" s="0">
-        <v>83825.128502899999</v>
+        <v>4498.5035730999998</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>5</v>
@@ -304,13 +304,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>23.998453299995163</v>
+        <v>23.999897600000622</v>
       </c>
       <c r="C13" s="0">
-        <v>83803.128058899994</v>
+        <v>787.3254649000005</v>
       </c>
       <c r="D13" s="0">
-        <v>83827.128408599994</v>
+        <v>4500.5035322000003</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>5</v>
@@ -321,13 +321,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>25.998485300005996</v>
+        <v>25.999890400000368</v>
       </c>
       <c r="C14" s="0">
-        <v>83803.128058900009</v>
+        <v>787.32546460000003</v>
       </c>
       <c r="D14" s="0">
-        <v>83829.128440600005</v>
+        <v>4502.5035250000001</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>5</v>
@@ -338,13 +338,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>27.998714700006531</v>
+        <v>27.999825400000191</v>
       </c>
       <c r="C15" s="0">
-        <v>83803.128057599999</v>
+        <v>787.32546520000005</v>
       </c>
       <c r="D15" s="0">
-        <v>83831.128670000006</v>
+        <v>4504.5034599999999</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>5</v>
@@ -355,13 +355,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>29.998485899996012</v>
+        <v>30.000102200000583</v>
       </c>
       <c r="C16" s="0">
-        <v>83803.128059099996</v>
+        <v>787.32546460000049</v>
       </c>
       <c r="D16" s="0">
-        <v>83833.128441199995</v>
+        <v>4506.5037368000003</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>5</v>
@@ -369,3618 +369,4100 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>0</v>
+        <v>31.999863800000639</v>
       </c>
       <c r="C17" s="0">
-        <v>0</v>
+        <v>787.3254651000002</v>
       </c>
       <c r="D17" s="0">
-        <v>0</v>
-      </c>
-      <c r="E17" s="0"/>
+        <v>4508.5034984000004</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>0</v>
+        <v>34.000328300000547</v>
       </c>
       <c r="C18" s="0">
-        <v>0</v>
+        <v>787.32539170000018</v>
       </c>
       <c r="D18" s="0">
-        <v>0</v>
-      </c>
-      <c r="E18" s="0"/>
+        <v>-4510.5039629000003</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>0</v>
+        <v>35.99995730000046</v>
       </c>
       <c r="C19" s="0">
-        <v>0</v>
+        <v>787.32544400000006</v>
       </c>
       <c r="D19" s="0">
-        <v>0</v>
-      </c>
-      <c r="E19" s="0"/>
+        <v>-4512.5035919000002</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="0">
-        <v>0</v>
+        <v>38.00002510000013</v>
       </c>
       <c r="C20" s="0">
-        <v>0</v>
+        <v>787.32543959999975</v>
       </c>
       <c r="D20" s="0">
-        <v>0</v>
-      </c>
-      <c r="E20" s="0"/>
+        <v>-4514.5036596999998</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>0</v>
+        <v>39.999848899999961</v>
       </c>
       <c r="C21" s="0">
-        <v>0</v>
+        <v>787.32544439999947</v>
       </c>
       <c r="D21" s="0">
-        <v>0</v>
-      </c>
-      <c r="E21" s="0"/>
+        <v>-4516.5034834999997</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="0">
-        <v>0</v>
+        <v>42.000652499999887</v>
       </c>
       <c r="C22" s="0">
-        <v>0</v>
+        <v>787.32535129999951</v>
       </c>
       <c r="D22" s="0">
-        <v>0</v>
-      </c>
-      <c r="E22" s="0"/>
+        <v>-4518.5042870999996</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0">
-        <v>0</v>
+        <v>43.999874099999943</v>
       </c>
       <c r="C23" s="0">
-        <v>0</v>
+        <v>787.32546529999945</v>
       </c>
       <c r="D23" s="0">
-        <v>0</v>
-      </c>
-      <c r="E23" s="0"/>
+        <v>-4520.5035086999997</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0">
-        <v>0</v>
+        <v>45.999794000000293</v>
       </c>
       <c r="C24" s="0">
-        <v>0</v>
+        <v>787.32546520000005</v>
       </c>
       <c r="D24" s="0">
-        <v>0</v>
-      </c>
-      <c r="E24" s="0"/>
+        <v>-4522.5034286</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="0">
-        <v>0</v>
+        <v>47.99982</v>
       </c>
       <c r="C25" s="0">
-        <v>0</v>
+        <v>787.32546489999959</v>
       </c>
       <c r="D25" s="0">
-        <v>0</v>
-      </c>
-      <c r="E25" s="0"/>
+        <v>-4524.5034545999997</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0">
-        <v>0</v>
+        <v>49.999796300000526</v>
       </c>
       <c r="C26" s="0">
-        <v>0</v>
+        <v>787.32546550000006</v>
       </c>
       <c r="D26" s="0">
-        <v>0</v>
-      </c>
-      <c r="E26" s="0"/>
+        <v>-4526.5034309000002</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="0">
-        <v>0</v>
+        <v>51.999846300000172</v>
       </c>
       <c r="C27" s="0">
-        <v>0</v>
+        <v>787.32546520000005</v>
       </c>
       <c r="D27" s="0">
-        <v>0</v>
-      </c>
-      <c r="E27" s="0"/>
+        <v>-4528.5034808999999</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0">
-        <v>0</v>
+        <v>53.999872600000344</v>
       </c>
       <c r="C28" s="0">
-        <v>0</v>
+        <v>787.32546360000015</v>
       </c>
       <c r="D28" s="0">
-        <v>0</v>
-      </c>
-      <c r="E28" s="0"/>
+        <v>-4530.5035072000001</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="0">
-        <v>0</v>
+        <v>55.999832100000276</v>
       </c>
       <c r="C29" s="0">
-        <v>0</v>
+        <v>787.32546499999989</v>
       </c>
       <c r="D29" s="0">
-        <v>0</v>
-      </c>
-      <c r="E29" s="0"/>
+        <v>-4532.5034667</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="0">
-        <v>0</v>
+        <v>57.999800700000378</v>
       </c>
       <c r="C30" s="0">
-        <v>0</v>
+        <v>787.32546550000006</v>
       </c>
       <c r="D30" s="0">
-        <v>0</v>
-      </c>
-      <c r="E30" s="0"/>
+        <v>-4534.5034353000001</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="0">
-        <v>0</v>
+        <v>59.999846100000468</v>
       </c>
       <c r="C31" s="0">
-        <v>0</v>
+        <v>787.32546500000035</v>
       </c>
       <c r="D31" s="0">
-        <v>0</v>
-      </c>
-      <c r="E31" s="0"/>
+        <v>-4536.5034807000002</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="0">
-        <v>0</v>
+        <v>61.999816700000338</v>
       </c>
       <c r="C32" s="0">
-        <v>0</v>
+        <v>787.32546499999989</v>
       </c>
       <c r="D32" s="0">
-        <v>0</v>
-      </c>
-      <c r="E32" s="0"/>
+        <v>-4538.5034513000001</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="0">
-        <v>0</v>
+        <v>64.00062810000054</v>
       </c>
       <c r="C33" s="0">
-        <v>0</v>
+        <v>787.32544040000039</v>
       </c>
       <c r="D33" s="0">
-        <v>0</v>
-      </c>
-      <c r="E33" s="0"/>
+        <v>4540.5042627000003</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="0">
-        <v>0</v>
+        <v>65.999996500000634</v>
       </c>
       <c r="C34" s="0">
-        <v>0</v>
+        <v>787.32544700000017</v>
       </c>
       <c r="D34" s="0">
-        <v>0</v>
-      </c>
-      <c r="E34" s="0"/>
+        <v>4542.5036311000003</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="0">
-        <v>0</v>
+        <v>68.000016800000594</v>
       </c>
       <c r="C35" s="0">
-        <v>0</v>
+        <v>787.32544610000014</v>
       </c>
       <c r="D35" s="0">
-        <v>0</v>
-      </c>
-      <c r="E35" s="0"/>
+        <v>4544.5036514000003</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="0">
-        <v>0</v>
+        <v>70.000206499999877</v>
       </c>
       <c r="C36" s="0">
-        <v>0</v>
+        <v>787.32544429999962</v>
       </c>
       <c r="D36" s="0">
-        <v>0</v>
-      </c>
-      <c r="E36" s="0"/>
+        <v>4546.5038410999996</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="0">
-        <v>0</v>
+        <v>72.000576899999942</v>
       </c>
       <c r="C37" s="0">
-        <v>0</v>
+        <v>787.32537569999977</v>
       </c>
       <c r="D37" s="0">
-        <v>0</v>
-      </c>
-      <c r="E37" s="0"/>
+        <v>4548.5042114999997</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="0">
-        <v>0</v>
+        <v>73.999851999999919</v>
       </c>
       <c r="C38" s="0">
-        <v>0</v>
+        <v>787.3254651999996</v>
       </c>
       <c r="D38" s="0">
-        <v>0</v>
-      </c>
-      <c r="E38" s="0"/>
+        <v>4550.5034865999996</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="0">
-        <v>0</v>
+        <v>75.999931000000288</v>
       </c>
       <c r="C39" s="0">
-        <v>0</v>
+        <v>787.3254651000002</v>
       </c>
       <c r="D39" s="0">
-        <v>0</v>
-      </c>
-      <c r="E39" s="0"/>
+        <v>4552.5035656</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="0">
-        <v>0</v>
+        <v>77.999914800000624</v>
       </c>
       <c r="C40" s="0">
-        <v>0</v>
+        <v>787.32546500000035</v>
       </c>
       <c r="D40" s="0">
-        <v>0</v>
-      </c>
-      <c r="E40" s="0"/>
+        <v>4554.5035494000003</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="0">
-        <v>0</v>
+        <v>79.999867700000323</v>
       </c>
       <c r="C41" s="0">
-        <v>0</v>
+        <v>787.3254651000002</v>
       </c>
       <c r="D41" s="0">
-        <v>0</v>
-      </c>
-      <c r="E41" s="0"/>
+        <v>4556.5035023</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="0">
-        <v>0</v>
+        <v>82.000100300000668</v>
       </c>
       <c r="C42" s="0">
-        <v>0</v>
+        <v>787.32546500000035</v>
       </c>
       <c r="D42" s="0">
-        <v>0</v>
-      </c>
-      <c r="E42" s="0"/>
+        <v>4558.5037349000004</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B43" s="0">
-        <v>0</v>
+        <v>83.999889200000325</v>
       </c>
       <c r="C43" s="0">
-        <v>0</v>
+        <v>787.32546480000019</v>
       </c>
       <c r="D43" s="0">
-        <v>0</v>
-      </c>
-      <c r="E43" s="0"/>
+        <v>4560.5035238</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B44" s="0">
-        <v>0</v>
+        <v>85.999841200000446</v>
       </c>
       <c r="C44" s="0">
-        <v>0</v>
+        <v>787.32546520000005</v>
       </c>
       <c r="D44" s="0">
-        <v>0</v>
-      </c>
-      <c r="E44" s="0"/>
+        <v>4562.5034758000002</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B45" s="0">
-        <v>0</v>
+        <v>87.999888600000304</v>
       </c>
       <c r="C45" s="0">
-        <v>0</v>
+        <v>787.32546460000003</v>
       </c>
       <c r="D45" s="0">
-        <v>0</v>
-      </c>
-      <c r="E45" s="0"/>
+        <v>4564.5035232</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B46" s="0">
-        <v>0</v>
+        <v>89.999901000000136</v>
       </c>
       <c r="C46" s="0">
-        <v>0</v>
+        <v>787.32546499999989</v>
       </c>
       <c r="D46" s="0">
-        <v>0</v>
-      </c>
-      <c r="E46" s="0"/>
+        <v>4566.5035355999999</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B47" s="0">
-        <v>0</v>
+        <v>91.999913300000117</v>
       </c>
       <c r="C47" s="0">
-        <v>0</v>
+        <v>787.32546509999975</v>
       </c>
       <c r="D47" s="0">
-        <v>0</v>
-      </c>
-      <c r="E47" s="0"/>
+        <v>4568.5035478999998</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B48" s="0">
-        <v>0</v>
+        <v>93.999866099999963</v>
       </c>
       <c r="C48" s="0">
-        <v>0</v>
+        <v>787.32546509999975</v>
       </c>
       <c r="D48" s="0">
-        <v>0</v>
-      </c>
-      <c r="E48" s="0"/>
+        <v>4570.5035006999997</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B49" s="0">
-        <v>0</v>
+        <v>96.000088100000539</v>
       </c>
       <c r="C49" s="0">
-        <v>0</v>
+        <v>787.32546330000014</v>
       </c>
       <c r="D49" s="0">
-        <v>0</v>
-      </c>
-      <c r="E49" s="0"/>
+        <v>4572.5037227000003</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B50" s="0">
-        <v>0</v>
+        <v>97.999824000000444</v>
       </c>
       <c r="C50" s="0">
-        <v>0</v>
+        <v>787.3254651000002</v>
       </c>
       <c r="D50" s="0">
-        <v>0</v>
-      </c>
-      <c r="E50" s="0"/>
+        <v>-4574.5034586000002</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B51" s="0">
-        <v>0</v>
+        <v>99.999868300000344</v>
       </c>
       <c r="C51" s="0">
-        <v>0</v>
+        <v>787.32546469999988</v>
       </c>
       <c r="D51" s="0">
-        <v>0</v>
-      </c>
-      <c r="E51" s="0"/>
+        <v>-4576.5035029000001</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B52" s="0">
-        <v>0</v>
+        <v>101.99987060000058</v>
       </c>
       <c r="C52" s="0">
-        <v>0</v>
+        <v>787.32546470000034</v>
       </c>
       <c r="D52" s="0">
-        <v>0</v>
-      </c>
-      <c r="E52" s="0"/>
+        <v>-4578.5035052000003</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B53" s="0">
-        <v>0</v>
+        <v>103.99979489999987</v>
       </c>
       <c r="C53" s="0">
-        <v>0</v>
+        <v>787.32546479999974</v>
       </c>
       <c r="D53" s="0">
-        <v>0</v>
-      </c>
-      <c r="E53" s="0"/>
+        <v>-4580.5034294999996</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B54" s="0">
-        <v>0</v>
+        <v>105.99977020000006</v>
       </c>
       <c r="C54" s="0">
-        <v>0</v>
+        <v>787.32546559999992</v>
       </c>
       <c r="D54" s="0">
-        <v>0</v>
-      </c>
-      <c r="E54" s="0"/>
+        <v>-4582.5034047999998</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B55" s="0">
-        <v>0</v>
+        <v>107.99976740000056</v>
       </c>
       <c r="C55" s="0">
-        <v>0</v>
+        <v>787.32546560000037</v>
       </c>
       <c r="D55" s="0">
-        <v>0</v>
-      </c>
-      <c r="E55" s="0"/>
+        <v>-4584.5034020000003</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B56" s="0">
-        <v>0</v>
+        <v>110.00023899999997</v>
       </c>
       <c r="C56" s="0">
-        <v>0</v>
+        <v>787.32546529999991</v>
       </c>
       <c r="D56" s="0">
-        <v>0</v>
-      </c>
-      <c r="E56" s="0"/>
+        <v>-4586.5038735999997</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="B57" s="0">
-        <v>0</v>
+        <v>111.99980740000046</v>
       </c>
       <c r="C57" s="0">
-        <v>0</v>
+        <v>787.32546550000006</v>
       </c>
       <c r="D57" s="0">
-        <v>0</v>
-      </c>
-      <c r="E57" s="0"/>
+        <v>-4588.5034420000002</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B58" s="0">
-        <v>0</v>
+        <v>113.99980980000055</v>
       </c>
       <c r="C58" s="0">
-        <v>0</v>
+        <v>787.3254651000002</v>
       </c>
       <c r="D58" s="0">
-        <v>0</v>
-      </c>
-      <c r="E58" s="0"/>
+        <v>-4590.5034444000003</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B59" s="0">
-        <v>0</v>
+        <v>115.99980660000074</v>
       </c>
       <c r="C59" s="0">
-        <v>0</v>
+        <v>787.32546500000035</v>
       </c>
       <c r="D59" s="0">
-        <v>0</v>
-      </c>
-      <c r="E59" s="0"/>
+        <v>-4592.5034412000005</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B60" s="0">
-        <v>0</v>
+        <v>117.99979990000065</v>
       </c>
       <c r="C60" s="0">
-        <v>0</v>
+        <v>787.32546420000017</v>
       </c>
       <c r="D60" s="0">
-        <v>0</v>
-      </c>
-      <c r="E60" s="0"/>
+        <v>-4594.5034345000004</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B61" s="0">
-        <v>0</v>
+        <v>119.99978180000016</v>
       </c>
       <c r="C61" s="0">
-        <v>0</v>
+        <v>787.32546529999991</v>
       </c>
       <c r="D61" s="0">
-        <v>0</v>
-      </c>
-      <c r="E61" s="0"/>
+        <v>-4596.5034163999999</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B62" s="0">
-        <v>0</v>
+        <v>121.99979979999989</v>
       </c>
       <c r="C62" s="0">
-        <v>0</v>
+        <v>787.32546479999974</v>
       </c>
       <c r="D62" s="0">
-        <v>0</v>
-      </c>
-      <c r="E62" s="0"/>
+        <v>-4598.5034343999996</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B63" s="0">
-        <v>0</v>
+        <v>123.99979590000021</v>
       </c>
       <c r="C63" s="0">
-        <v>0</v>
+        <v>787.32546529999991</v>
       </c>
       <c r="D63" s="0">
-        <v>0</v>
-      </c>
-      <c r="E63" s="0"/>
+        <v>-4600.5034304999999</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B64" s="0">
-        <v>0</v>
+        <v>125.9998099000004</v>
       </c>
       <c r="C64" s="0">
-        <v>0</v>
+        <v>787.3254651000002</v>
       </c>
       <c r="D64" s="0">
-        <v>0</v>
-      </c>
-      <c r="E64" s="0"/>
+        <v>-4602.5034445000001</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="B65" s="0">
-        <v>0</v>
+        <v>127.99985190000007</v>
       </c>
       <c r="C65" s="0">
-        <v>0</v>
+        <v>787.3254651999996</v>
       </c>
       <c r="D65" s="0">
-        <v>0</v>
-      </c>
-      <c r="E65" s="0"/>
+        <v>4604.5034864999998</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B66" s="0">
-        <v>0</v>
+        <v>129.9998114</v>
       </c>
       <c r="C66" s="0">
-        <v>0</v>
+        <v>787.32546529999991</v>
       </c>
       <c r="D66" s="0">
-        <v>0</v>
-      </c>
-      <c r="E66" s="0"/>
+        <v>4606.5034459999997</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B67" s="0">
-        <v>0</v>
+        <v>132.0001127000005</v>
       </c>
       <c r="C67" s="0">
-        <v>0</v>
+        <v>787.32546339999999</v>
       </c>
       <c r="D67" s="0">
-        <v>0</v>
-      </c>
-      <c r="E67" s="0"/>
+        <v>4608.5037473000002</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B68" s="0">
-        <v>0</v>
+        <v>133.99990150000031</v>
       </c>
       <c r="C68" s="0">
-        <v>0</v>
+        <v>787.32546490000004</v>
       </c>
       <c r="D68" s="0">
-        <v>0</v>
-      </c>
-      <c r="E68" s="0"/>
+        <v>4610.5035361</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B69" s="0">
-        <v>0</v>
+        <v>135.99989020000066</v>
       </c>
       <c r="C69" s="0">
-        <v>0</v>
+        <v>787.32546520000051</v>
       </c>
       <c r="D69" s="0">
-        <v>0</v>
-      </c>
-      <c r="E69" s="0"/>
+        <v>4612.5035248000004</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="B70" s="0">
-        <v>0</v>
+        <v>137.99987349999992</v>
       </c>
       <c r="C70" s="0">
-        <v>0</v>
+        <v>787.32546449999973</v>
       </c>
       <c r="D70" s="0">
-        <v>0</v>
-      </c>
-      <c r="E70" s="0"/>
+        <v>4614.5035080999996</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B71" s="0">
-        <v>0</v>
+        <v>139.9999056000006</v>
       </c>
       <c r="C71" s="0">
-        <v>0</v>
+        <v>787.32546360000015</v>
       </c>
       <c r="D71" s="0">
-        <v>0</v>
-      </c>
-      <c r="E71" s="0"/>
+        <v>4616.5035402000003</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="B72" s="0">
-        <v>0</v>
+        <v>141.99988510000003</v>
       </c>
       <c r="C72" s="0">
-        <v>0</v>
+        <v>787.32546479999974</v>
       </c>
       <c r="D72" s="0">
-        <v>0</v>
-      </c>
-      <c r="E72" s="0"/>
+        <v>4618.5035196999997</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="B73" s="0">
-        <v>0</v>
+        <v>143.99992360000033</v>
       </c>
       <c r="C73" s="0">
-        <v>0</v>
+        <v>787.32546529999991</v>
       </c>
       <c r="D73" s="0">
-        <v>0</v>
-      </c>
-      <c r="E73" s="0"/>
+        <v>4620.5035582</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="B74" s="0">
-        <v>0</v>
+        <v>146.00033840000015</v>
       </c>
       <c r="C74" s="0">
-        <v>0</v>
+        <v>787.32546279999997</v>
       </c>
       <c r="D74" s="0">
-        <v>0</v>
-      </c>
-      <c r="E74" s="0"/>
+        <v>4622.5039729999999</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="B75" s="0">
-        <v>0</v>
+        <v>147.99993940000059</v>
       </c>
       <c r="C75" s="0">
-        <v>0</v>
+        <v>787.3254522000002</v>
       </c>
       <c r="D75" s="0">
-        <v>0</v>
-      </c>
-      <c r="E75" s="0"/>
+        <v>4624.5035740000003</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B76" s="0">
-        <v>0</v>
+        <v>149.99983920000068</v>
       </c>
       <c r="C76" s="0">
-        <v>0</v>
+        <v>787.3254649000005</v>
       </c>
       <c r="D76" s="0">
-        <v>0</v>
-      </c>
-      <c r="E76" s="0"/>
+        <v>4626.5034738000004</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B77" s="0">
-        <v>0</v>
+        <v>151.99990750000052</v>
       </c>
       <c r="C77" s="0">
-        <v>0</v>
+        <v>787.32546530000036</v>
       </c>
       <c r="D77" s="0">
-        <v>0</v>
-      </c>
-      <c r="E77" s="0"/>
+        <v>4628.5035421000002</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="B78" s="0">
-        <v>0</v>
+        <v>154.0000270999999</v>
       </c>
       <c r="C78" s="0">
-        <v>0</v>
+        <v>787.32546489999959</v>
       </c>
       <c r="D78" s="0">
-        <v>0</v>
-      </c>
-      <c r="E78" s="0"/>
+        <v>4630.5036616999996</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="B79" s="0">
-        <v>0</v>
+        <v>155.9999499000005</v>
       </c>
       <c r="C79" s="0">
-        <v>0</v>
+        <v>787.32546100000036</v>
       </c>
       <c r="D79" s="0">
-        <v>0</v>
-      </c>
-      <c r="E79" s="0"/>
+        <v>4632.5035845000002</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="B80" s="0">
-        <v>0</v>
+        <v>158.00006110000049</v>
       </c>
       <c r="C80" s="0">
-        <v>0</v>
+        <v>787.3254635000003</v>
       </c>
       <c r="D80" s="0">
-        <v>0</v>
-      </c>
-      <c r="E80" s="0"/>
+        <v>4634.5036957000002</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="B81" s="0">
-        <v>0</v>
+        <v>159.99990909999997</v>
       </c>
       <c r="C81" s="0">
-        <v>0</v>
+        <v>787.32546539999976</v>
       </c>
       <c r="D81" s="0">
-        <v>0</v>
-      </c>
-      <c r="E81" s="0"/>
+        <v>4636.5035436999997</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="B82" s="0">
-        <v>0</v>
+        <v>161.99986720000015</v>
       </c>
       <c r="C82" s="0">
-        <v>0</v>
+        <v>787.32546490000004</v>
       </c>
       <c r="D82" s="0">
-        <v>0</v>
-      </c>
-      <c r="E82" s="0"/>
+        <v>-4638.5035017999999</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="B83" s="0">
-        <v>0</v>
+        <v>163.99975330000052</v>
       </c>
       <c r="C83" s="0">
-        <v>0</v>
+        <v>787.32546520000005</v>
       </c>
       <c r="D83" s="0">
-        <v>0</v>
-      </c>
-      <c r="E83" s="0"/>
+        <v>-4640.5033879000002</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B84" s="0">
-        <v>0</v>
+        <v>165.99984490000043</v>
       </c>
       <c r="C84" s="0">
-        <v>0</v>
+        <v>787.32546500000035</v>
       </c>
       <c r="D84" s="0">
-        <v>0</v>
-      </c>
-      <c r="E84" s="0"/>
+        <v>-4642.5034795000001</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="B85" s="0">
-        <v>0</v>
+        <v>167.99979080000048</v>
       </c>
       <c r="C85" s="0">
-        <v>0</v>
+        <v>787.32546430000002</v>
       </c>
       <c r="D85" s="0">
-        <v>0</v>
-      </c>
-      <c r="E85" s="0"/>
+        <v>-4644.5034254000002</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="B86" s="0">
-        <v>0</v>
+        <v>169.99975989999984</v>
       </c>
       <c r="C86" s="0">
-        <v>0</v>
+        <v>787.32546539999976</v>
       </c>
       <c r="D86" s="0">
-        <v>0</v>
-      </c>
-      <c r="E86" s="0"/>
+        <v>-4646.5033944999996</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="B87" s="0">
-        <v>0</v>
+        <v>171.99979480000002</v>
       </c>
       <c r="C87" s="0">
-        <v>0</v>
+        <v>787.32546559999992</v>
       </c>
       <c r="D87" s="0">
-        <v>0</v>
-      </c>
-      <c r="E87" s="0"/>
+        <v>-4648.5034293999997</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="B88" s="0">
-        <v>0</v>
+        <v>173.99975910000012</v>
       </c>
       <c r="C88" s="0">
-        <v>0</v>
+        <v>787.32546479999974</v>
       </c>
       <c r="D88" s="0">
-        <v>0</v>
-      </c>
-      <c r="E88" s="0"/>
+        <v>-4650.5033936999998</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B89" s="0">
-        <v>0</v>
+        <v>175.99980190000042</v>
       </c>
       <c r="C89" s="0">
-        <v>0</v>
+        <v>787.32546550000006</v>
       </c>
       <c r="D89" s="0">
-        <v>0</v>
-      </c>
-      <c r="E89" s="0"/>
+        <v>-4652.5034365000001</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="B90" s="0">
-        <v>0</v>
+        <v>177.99987810000039</v>
       </c>
       <c r="C90" s="0">
-        <v>0</v>
+        <v>787.32546529999991</v>
       </c>
       <c r="D90" s="0">
-        <v>0</v>
-      </c>
-      <c r="E90" s="0"/>
+        <v>-4654.5035127000001</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="B91" s="0">
-        <v>0</v>
+        <v>179.99980690000029</v>
       </c>
       <c r="C91" s="0">
-        <v>0</v>
+        <v>787.32546469999988</v>
       </c>
       <c r="D91" s="0">
-        <v>0</v>
-      </c>
-      <c r="E91" s="0"/>
+        <v>-4656.5034415</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B92" s="0">
-        <v>0</v>
+        <v>181.99981509999998</v>
       </c>
       <c r="C92" s="0">
-        <v>0</v>
+        <v>787.32546569999977</v>
       </c>
       <c r="D92" s="0">
-        <v>0</v>
-      </c>
-      <c r="E92" s="0"/>
+        <v>-4658.5034496999997</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="B93" s="0">
-        <v>0</v>
+        <v>183.99982220000038</v>
       </c>
       <c r="C93" s="0">
-        <v>0</v>
+        <v>787.32546540000021</v>
       </c>
       <c r="D93" s="0">
-        <v>0</v>
-      </c>
-      <c r="E93" s="0"/>
+        <v>-4660.5034568000001</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="B94" s="0">
-        <v>0</v>
+        <v>185.99976790000073</v>
       </c>
       <c r="C94" s="0">
-        <v>0</v>
+        <v>787.32546570000022</v>
       </c>
       <c r="D94" s="0">
-        <v>0</v>
-      </c>
-      <c r="E94" s="0"/>
+        <v>-4662.5034025000004</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="B95" s="0">
-        <v>0</v>
+        <v>187.99984540000059</v>
       </c>
       <c r="C95" s="0">
-        <v>0</v>
+        <v>787.3254651000002</v>
       </c>
       <c r="D95" s="0">
-        <v>0</v>
-      </c>
-      <c r="E95" s="0"/>
+        <v>-4664.5034800000003</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="B96" s="0">
-        <v>0</v>
+        <v>190.00057689999994</v>
       </c>
       <c r="C96" s="0">
-        <v>0</v>
+        <v>787.32546449999973</v>
       </c>
       <c r="D96" s="0">
-        <v>0</v>
-      </c>
-      <c r="E96" s="0"/>
+        <v>-4666.5042114999997</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="B97" s="0">
-        <v>0</v>
+        <v>191.99992830000065</v>
       </c>
       <c r="C97" s="0">
-        <v>0</v>
+        <v>787.32546430000048</v>
       </c>
       <c r="D97" s="0">
-        <v>0</v>
-      </c>
-      <c r="E97" s="0"/>
+        <v>4668.5035629000004</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="B98" s="0">
-        <v>0</v>
+        <v>193.99995720000061</v>
       </c>
       <c r="C98" s="0">
-        <v>0</v>
+        <v>787.3254649000005</v>
       </c>
       <c r="D98" s="0">
-        <v>0</v>
-      </c>
-      <c r="E98" s="0"/>
+        <v>4670.5035918000003</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="B99" s="0">
-        <v>0</v>
+        <v>195.99989580000056</v>
       </c>
       <c r="C99" s="0">
-        <v>0</v>
+        <v>787.32546500000035</v>
       </c>
       <c r="D99" s="0">
-        <v>0</v>
-      </c>
-      <c r="E99" s="0"/>
+        <v>4672.5035304000003</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="B100" s="0">
-        <v>0</v>
+        <v>197.99982750000072</v>
       </c>
       <c r="C100" s="0">
-        <v>0</v>
+        <v>787.32546510000066</v>
       </c>
       <c r="D100" s="0">
-        <v>0</v>
-      </c>
-      <c r="E100" s="0"/>
+        <v>4674.5034621000004</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B101" s="0">
-        <v>0</v>
+        <v>199.99992900000052</v>
       </c>
       <c r="C101" s="0">
-        <v>0</v>
+        <v>787.32546520000005</v>
       </c>
       <c r="D101" s="0">
-        <v>0</v>
-      </c>
-      <c r="E101" s="0"/>
+        <v>4676.5035636000002</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="B102" s="0">
-        <v>0</v>
+        <v>201.99987250000049</v>
       </c>
       <c r="C102" s="0">
-        <v>0</v>
+        <v>787.3254651000002</v>
       </c>
       <c r="D102" s="0">
-        <v>0</v>
-      </c>
-      <c r="E102" s="0"/>
+        <v>4678.5035071000002</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B103" s="0">
-        <v>0</v>
+        <v>203.99997480000002</v>
       </c>
       <c r="C103" s="0">
-        <v>0</v>
+        <v>787.32546429999957</v>
       </c>
       <c r="D103" s="0">
-        <v>0</v>
-      </c>
-      <c r="E103" s="0"/>
+        <v>4680.5036093999997</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="B104" s="0">
-        <v>0</v>
+        <v>205.99987220000003</v>
       </c>
       <c r="C104" s="0">
-        <v>0</v>
+        <v>787.3254651999996</v>
       </c>
       <c r="D104" s="0">
-        <v>0</v>
-      </c>
-      <c r="E104" s="0"/>
+        <v>4682.5035067999997</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="B105" s="0">
-        <v>0</v>
+        <v>208.00005280000005</v>
       </c>
       <c r="C105" s="0">
-        <v>0</v>
+        <v>787.32544959999996</v>
       </c>
       <c r="D105" s="0">
-        <v>0</v>
-      </c>
-      <c r="E105" s="0"/>
+        <v>4684.5036873999998</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="B106" s="0">
-        <v>0</v>
+        <v>209.99988960000064</v>
       </c>
       <c r="C106" s="0">
-        <v>0</v>
+        <v>787.32546540000021</v>
       </c>
       <c r="D106" s="0">
-        <v>0</v>
-      </c>
-      <c r="E106" s="0"/>
+        <v>4686.5035242000004</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="B107" s="0">
-        <v>0</v>
+        <v>211.99985330000072</v>
       </c>
       <c r="C107" s="0">
-        <v>0</v>
+        <v>787.32546520000051</v>
       </c>
       <c r="D107" s="0">
-        <v>0</v>
-      </c>
-      <c r="E107" s="0"/>
+        <v>4688.5034879000004</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="B108" s="0">
-        <v>0</v>
+        <v>213.99991589999991</v>
       </c>
       <c r="C108" s="0">
-        <v>0</v>
+        <v>787.32546449999973</v>
       </c>
       <c r="D108" s="0">
-        <v>0</v>
-      </c>
-      <c r="E108" s="0"/>
+        <v>4690.5035504999996</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B109" s="0">
-        <v>0</v>
+        <v>215.99989840000035</v>
       </c>
       <c r="C109" s="0">
-        <v>0</v>
+        <v>787.32546520000005</v>
       </c>
       <c r="D109" s="0">
-        <v>0</v>
-      </c>
-      <c r="E109" s="0"/>
+        <v>4692.5035330000001</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="B110" s="0">
-        <v>0</v>
+        <v>217.99988160000066</v>
       </c>
       <c r="C110" s="0">
-        <v>0</v>
+        <v>787.32546540000021</v>
       </c>
       <c r="D110" s="0">
-        <v>0</v>
-      </c>
-      <c r="E110" s="0"/>
+        <v>4694.5035162000004</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="B111" s="0">
-        <v>0</v>
+        <v>219.99994460000016</v>
       </c>
       <c r="C111" s="0">
-        <v>0</v>
+        <v>787.32546439999987</v>
       </c>
       <c r="D111" s="0">
-        <v>0</v>
-      </c>
-      <c r="E111" s="0"/>
+        <v>4696.5035791999999</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="B112" s="0">
-        <v>0</v>
+        <v>221.99988650000068</v>
       </c>
       <c r="C112" s="0">
-        <v>0</v>
+        <v>787.32546470000034</v>
       </c>
       <c r="D112" s="0">
-        <v>0</v>
-      </c>
-      <c r="E112" s="0"/>
+        <v>4698.5035211000004</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="B113" s="0">
-        <v>0</v>
+        <v>223.99984350000068</v>
       </c>
       <c r="C113" s="0">
-        <v>0</v>
+        <v>787.32546540000021</v>
       </c>
       <c r="D113" s="0">
-        <v>0</v>
-      </c>
-      <c r="E113" s="0"/>
+        <v>4700.5034781000004</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="B114" s="0">
-        <v>0</v>
+        <v>225.99976360000073</v>
       </c>
       <c r="C114" s="0">
-        <v>0</v>
+        <v>787.32546540000067</v>
       </c>
       <c r="D114" s="0">
-        <v>0</v>
-      </c>
-      <c r="E114" s="0"/>
+        <v>-4702.5033982000004</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="B115" s="0">
-        <v>0</v>
+        <v>227.99977410000065</v>
       </c>
       <c r="C115" s="0">
-        <v>0</v>
+        <v>787.3254651000002</v>
       </c>
       <c r="D115" s="0">
-        <v>0</v>
-      </c>
-      <c r="E115" s="0"/>
+        <v>-4704.5034087000004</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="B116" s="0">
-        <v>0</v>
+        <v>230.00004620000072</v>
       </c>
       <c r="C116" s="0">
-        <v>0</v>
+        <v>787.32546480000065</v>
       </c>
       <c r="D116" s="0">
-        <v>0</v>
-      </c>
-      <c r="E116" s="0"/>
+        <v>-4706.5036808000004</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="B117" s="0">
-        <v>0</v>
+        <v>231.99979820000044</v>
       </c>
       <c r="C117" s="0">
-        <v>0</v>
+        <v>787.32546550000006</v>
       </c>
       <c r="D117" s="0">
-        <v>0</v>
-      </c>
-      <c r="E117" s="0"/>
+        <v>-4708.5034328000002</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="B118" s="0">
-        <v>0</v>
+        <v>233.99975549999999</v>
       </c>
       <c r="C118" s="0">
-        <v>0</v>
+        <v>787.32546529999991</v>
       </c>
       <c r="D118" s="0">
-        <v>0</v>
-      </c>
-      <c r="E118" s="0"/>
+        <v>-4710.5033900999997</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="B119" s="0">
-        <v>0</v>
+        <v>235.99981079999998</v>
       </c>
       <c r="C119" s="0">
-        <v>0</v>
+        <v>787.3254651999996</v>
       </c>
       <c r="D119" s="0">
-        <v>0</v>
-      </c>
-      <c r="E119" s="0"/>
+        <v>-4712.5034453999997</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="B120" s="0">
-        <v>0</v>
+        <v>237.99980959999994</v>
       </c>
       <c r="C120" s="0">
-        <v>0</v>
+        <v>787.32546449999973</v>
       </c>
       <c r="D120" s="0">
-        <v>0</v>
-      </c>
-      <c r="E120" s="0"/>
+        <v>-4714.5034441999996</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="B121" s="0">
-        <v>0</v>
+        <v>239.99979020000046</v>
       </c>
       <c r="C121" s="0">
-        <v>0</v>
+        <v>787.32546560000037</v>
       </c>
       <c r="D121" s="0">
-        <v>0</v>
-      </c>
-      <c r="E121" s="0"/>
+        <v>-4716.5034248000002</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="B122" s="0">
-        <v>0</v>
+        <v>241.99977510000008</v>
       </c>
       <c r="C122" s="0">
-        <v>0</v>
+        <v>787.32546559999992</v>
       </c>
       <c r="D122" s="0">
-        <v>0</v>
-      </c>
-      <c r="E122" s="0"/>
+        <v>-4718.5034096999998</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="B123" s="0">
-        <v>0</v>
+        <v>243.99979520000034</v>
       </c>
       <c r="C123" s="0">
-        <v>0</v>
+        <v>787.32546540000021</v>
       </c>
       <c r="D123" s="0">
-        <v>0</v>
-      </c>
-      <c r="E123" s="0"/>
+        <v>-4720.5034298</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="B124" s="0">
-        <v>0</v>
+        <v>245.9998101000001</v>
       </c>
       <c r="C124" s="0">
-        <v>0</v>
+        <v>787.32546529999991</v>
       </c>
       <c r="D124" s="0">
-        <v>0</v>
-      </c>
-      <c r="E124" s="0"/>
+        <v>-4722.5034446999998</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="B125" s="0">
-        <v>0</v>
+        <v>247.99983669999983</v>
       </c>
       <c r="C125" s="0">
-        <v>0</v>
+        <v>787.32546439999942</v>
       </c>
       <c r="D125" s="0">
-        <v>0</v>
-      </c>
-      <c r="E125" s="0"/>
+        <v>-4724.5034712999995</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="B126" s="0">
-        <v>0</v>
+        <v>249.9998183000007</v>
       </c>
       <c r="C126" s="0">
-        <v>0</v>
+        <v>787.32546460000049</v>
       </c>
       <c r="D126" s="0">
-        <v>0</v>
-      </c>
-      <c r="E126" s="0"/>
+        <v>-4726.5034529000004</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="B127" s="0">
-        <v>0</v>
+        <v>251.99976490000063</v>
       </c>
       <c r="C127" s="0">
-        <v>0</v>
+        <v>787.32546530000036</v>
       </c>
       <c r="D127" s="0">
-        <v>0</v>
-      </c>
-      <c r="E127" s="0"/>
+        <v>-4728.5033995000003</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="B128" s="0">
-        <v>0</v>
+        <v>253.99982090000049</v>
       </c>
       <c r="C128" s="0">
-        <v>0</v>
+        <v>787.32546540000021</v>
       </c>
       <c r="D128" s="0">
-        <v>0</v>
-      </c>
-      <c r="E128" s="0"/>
+        <v>-4730.5034555000002</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="B129" s="0">
-        <v>0</v>
+        <v>255.99997590000021</v>
       </c>
       <c r="C129" s="0">
-        <v>0</v>
+        <v>787.32546379999985</v>
       </c>
       <c r="D129" s="0">
-        <v>0</v>
-      </c>
-      <c r="E129" s="0"/>
+        <v>4732.5036104999999</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="B130" s="0">
-        <v>0</v>
+        <v>257.99993940000059</v>
       </c>
       <c r="C130" s="0">
-        <v>0</v>
+        <v>787.32546520000051</v>
       </c>
       <c r="D130" s="0">
-        <v>0</v>
-      </c>
-      <c r="E130" s="0"/>
+        <v>4734.5035740000003</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="B131" s="0">
-        <v>0</v>
+        <v>259.99992060000022</v>
       </c>
       <c r="C131" s="0">
-        <v>0</v>
+        <v>787.32546509999975</v>
       </c>
       <c r="D131" s="0">
-        <v>0</v>
-      </c>
-      <c r="E131" s="0"/>
+        <v>4736.5035551999999</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="B132" s="0">
-        <v>0</v>
+        <v>262.00004880000051</v>
       </c>
       <c r="C132" s="0">
-        <v>0</v>
+        <v>787.32546480000019</v>
       </c>
       <c r="D132" s="0">
-        <v>0</v>
-      </c>
-      <c r="E132" s="0"/>
+        <v>4738.5036834000002</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="B133" s="0">
-        <v>0</v>
+        <v>264.00037390000034</v>
       </c>
       <c r="C133" s="0">
-        <v>0</v>
+        <v>787.32546520000005</v>
       </c>
       <c r="D133" s="0">
-        <v>0</v>
-      </c>
-      <c r="E133" s="0"/>
+        <v>4740.5040085000001</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="B134" s="0">
-        <v>0</v>
+        <v>265.99992340000063</v>
       </c>
       <c r="C134" s="0">
-        <v>0</v>
+        <v>787.32546440000033</v>
       </c>
       <c r="D134" s="0">
-        <v>0</v>
-      </c>
-      <c r="E134" s="0"/>
+        <v>4742.5035580000003</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="B135" s="0">
-        <v>0</v>
+        <v>267.9998798000006</v>
       </c>
       <c r="C135" s="0">
-        <v>0</v>
+        <v>787.32546450000018</v>
       </c>
       <c r="D135" s="0">
-        <v>0</v>
-      </c>
-      <c r="E135" s="0"/>
+        <v>4744.5035144000003</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="B136" s="0">
-        <v>0</v>
+        <v>270.00009039999986</v>
       </c>
       <c r="C136" s="0">
-        <v>0</v>
+        <v>787.32546319999938</v>
       </c>
       <c r="D136" s="0">
-        <v>0</v>
-      </c>
-      <c r="E136" s="0"/>
+        <v>4746.5037249999996</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="B137" s="0">
-        <v>0</v>
+        <v>272.0002213000007</v>
       </c>
       <c r="C137" s="0">
-        <v>0</v>
+        <v>787.3254622000004</v>
       </c>
       <c r="D137" s="0">
-        <v>0</v>
-      </c>
-      <c r="E137" s="0"/>
+        <v>4748.5038559000004</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="B138" s="0">
-        <v>0</v>
+        <v>273.99992890000067</v>
       </c>
       <c r="C138" s="0">
-        <v>0</v>
+        <v>787.32546420000017</v>
       </c>
       <c r="D138" s="0">
-        <v>0</v>
-      </c>
-      <c r="E138" s="0"/>
+        <v>4750.5035635000004</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="B139" s="0">
-        <v>0</v>
+        <v>275.99986890000037</v>
       </c>
       <c r="C139" s="0">
-        <v>0</v>
+        <v>787.32546499999989</v>
       </c>
       <c r="D139" s="0">
-        <v>0</v>
-      </c>
-      <c r="E139" s="0"/>
+        <v>4752.5035035000001</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="B140" s="0">
-        <v>0</v>
+        <v>277.99986850000005</v>
       </c>
       <c r="C140" s="0">
-        <v>0</v>
+        <v>787.32546539999976</v>
       </c>
       <c r="D140" s="0">
-        <v>0</v>
-      </c>
-      <c r="E140" s="0"/>
+        <v>4754.5035030999998</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="B141" s="0">
-        <v>0</v>
+        <v>279.9999155000005</v>
       </c>
       <c r="C141" s="0">
-        <v>0</v>
+        <v>787.32546560000037</v>
       </c>
       <c r="D141" s="0">
-        <v>0</v>
-      </c>
-      <c r="E141" s="0"/>
+        <v>4756.5035501000002</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="B142" s="0">
-        <v>0</v>
+        <v>281.99999650000063</v>
       </c>
       <c r="C142" s="0">
-        <v>0</v>
+        <v>787.32546480000019</v>
       </c>
       <c r="D142" s="0">
-        <v>0</v>
-      </c>
-      <c r="E142" s="0"/>
+        <v>4758.5036311000003</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="B143" s="0">
-        <v>0</v>
+        <v>283.99988570000005</v>
       </c>
       <c r="C143" s="0">
-        <v>0</v>
+        <v>787.3254651999996</v>
       </c>
       <c r="D143" s="0">
-        <v>0</v>
-      </c>
-      <c r="E143" s="0"/>
+        <v>4760.5035202999998</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="B144" s="0">
-        <v>0</v>
+        <v>285.99989780000033</v>
       </c>
       <c r="C144" s="0">
-        <v>0</v>
+        <v>787.32546490000004</v>
       </c>
       <c r="D144" s="0">
-        <v>0</v>
-      </c>
-      <c r="E144" s="0"/>
+        <v>4762.5035324</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="B145" s="0">
-        <v>0</v>
+        <v>288.00098340000022</v>
       </c>
       <c r="C145" s="0">
-        <v>0</v>
+        <v>787.32546490000004</v>
       </c>
       <c r="D145" s="0">
-        <v>0</v>
-      </c>
-      <c r="E145" s="0"/>
+        <v>4764.5046179999999</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="B146" s="0">
-        <v>0</v>
+        <v>289.9998099000004</v>
       </c>
       <c r="C146" s="0">
-        <v>0</v>
+        <v>787.32546550000006</v>
       </c>
       <c r="D146" s="0">
-        <v>0</v>
-      </c>
-      <c r="E146" s="0"/>
+        <v>-4766.5034445000001</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="B147" s="0">
-        <v>0</v>
+        <v>291.99984459999996</v>
       </c>
       <c r="C147" s="0">
-        <v>0</v>
+        <v>787.32546499999989</v>
       </c>
       <c r="D147" s="0">
-        <v>0</v>
-      </c>
-      <c r="E147" s="0"/>
+        <v>-4768.5034791999997</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="B148" s="0">
-        <v>0</v>
+        <v>293.9998499000003</v>
       </c>
       <c r="C148" s="0">
-        <v>0</v>
+        <v>787.32546270000012</v>
       </c>
       <c r="D148" s="0">
-        <v>0</v>
-      </c>
-      <c r="E148" s="0"/>
+        <v>-4770.5034845</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="B149" s="0">
-        <v>0</v>
+        <v>295.99976060000063</v>
       </c>
       <c r="C149" s="0">
-        <v>0</v>
+        <v>787.3254606000005</v>
       </c>
       <c r="D149" s="0">
-        <v>0</v>
-      </c>
-      <c r="E149" s="0"/>
+        <v>-4772.5033952000003</v>
+      </c>
+      <c r="E149" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="B150" s="0">
-        <v>0</v>
+        <v>297.99976270000025</v>
       </c>
       <c r="C150" s="0">
-        <v>0</v>
+        <v>787.32546539999976</v>
       </c>
       <c r="D150" s="0">
-        <v>0</v>
-      </c>
-      <c r="E150" s="0"/>
+        <v>-4774.5033973</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="B151" s="0">
-        <v>0</v>
+        <v>299.99979630000053</v>
       </c>
       <c r="C151" s="0">
-        <v>0</v>
+        <v>787.32546550000006</v>
       </c>
       <c r="D151" s="0">
-        <v>0</v>
-      </c>
-      <c r="E151" s="0"/>
+        <v>-4776.5034309000002</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B152" s="0">
-        <v>0</v>
+        <v>301.99976980000065</v>
       </c>
       <c r="C152" s="0">
-        <v>0</v>
+        <v>787.32546550000052</v>
       </c>
       <c r="D152" s="0">
-        <v>0</v>
-      </c>
-      <c r="E152" s="0"/>
+        <v>-4778.5034044000004</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="B153" s="0">
-        <v>0</v>
+        <v>303.99980740000046</v>
       </c>
       <c r="C153" s="0">
-        <v>0</v>
+        <v>787.32546520000005</v>
       </c>
       <c r="D153" s="0">
-        <v>0</v>
-      </c>
-      <c r="E153" s="0"/>
+        <v>-4780.5034420000002</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="B154" s="0">
-        <v>0</v>
+        <v>305.99977579999995</v>
       </c>
       <c r="C154" s="0">
-        <v>0</v>
+        <v>787.32546529999945</v>
       </c>
       <c r="D154" s="0">
-        <v>0</v>
-      </c>
-      <c r="E154" s="0"/>
+        <v>-4782.5034103999997</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="B155" s="0">
-        <v>0</v>
+        <v>307.99980219999998</v>
       </c>
       <c r="C155" s="0">
-        <v>0</v>
+        <v>787.32546549999961</v>
       </c>
       <c r="D155" s="0">
-        <v>0</v>
-      </c>
-      <c r="E155" s="0"/>
+        <v>-4784.5034367999997</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="B156" s="0">
-        <v>0</v>
+        <v>310.00054809999983</v>
       </c>
       <c r="C156" s="0">
-        <v>0</v>
+        <v>787.32546509999975</v>
       </c>
       <c r="D156" s="0">
-        <v>0</v>
-      </c>
-      <c r="E156" s="0"/>
+        <v>-4786.5041826999995</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="B157" s="0">
-        <v>0</v>
+        <v>311.9998271000004</v>
       </c>
       <c r="C157" s="0">
-        <v>0</v>
+        <v>787.32546480000019</v>
       </c>
       <c r="D157" s="0">
-        <v>0</v>
-      </c>
-      <c r="E157" s="0"/>
+        <v>-4788.5034617000001</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="B158" s="0">
-        <v>0</v>
+        <v>313.99980230000074</v>
       </c>
       <c r="C158" s="0">
-        <v>0</v>
+        <v>787.32546560000037</v>
       </c>
       <c r="D158" s="0">
-        <v>0</v>
-      </c>
-      <c r="E158" s="0"/>
+        <v>-4790.5034369000005</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="B159" s="0">
-        <v>0</v>
+        <v>315.9998226000007</v>
       </c>
       <c r="C159" s="0">
-        <v>0</v>
+        <v>787.32546470000034</v>
       </c>
       <c r="D159" s="0">
-        <v>0</v>
-      </c>
-      <c r="E159" s="0"/>
+        <v>-4792.5034572000004</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B160" s="0">
-        <v>0</v>
+        <v>317.99975690000065</v>
       </c>
       <c r="C160" s="0">
-        <v>0</v>
+        <v>787.32546520000051</v>
       </c>
       <c r="D160" s="0">
-        <v>0</v>
-      </c>
-      <c r="E160" s="0"/>
+        <v>-4794.5033915000004</v>
+      </c>
+      <c r="E160" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="B161" s="0">
-        <v>0</v>
+        <v>319.99993799999993</v>
       </c>
       <c r="C161" s="0">
-        <v>0</v>
+        <v>787.32546479999974</v>
       </c>
       <c r="D161" s="0">
-        <v>0</v>
-      </c>
-      <c r="E161" s="0"/>
+        <v>4796.5035725999996</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="B162" s="0">
-        <v>0</v>
+        <v>322.00017470000057</v>
       </c>
       <c r="C162" s="0">
-        <v>0</v>
+        <v>787.32545890000029</v>
       </c>
       <c r="D162" s="0">
-        <v>0</v>
-      </c>
-      <c r="E162" s="0"/>
+        <v>4798.5038093000003</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="B163" s="0">
-        <v>0</v>
+        <v>324.00019340000017</v>
       </c>
       <c r="C163" s="0">
-        <v>0</v>
+        <v>787.32545469999968</v>
       </c>
       <c r="D163" s="0">
-        <v>0</v>
-      </c>
-      <c r="E163" s="0"/>
+        <v>4800.5038279999999</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="B164" s="0">
-        <v>0</v>
+        <v>326.00002690000019</v>
       </c>
       <c r="C164" s="0">
-        <v>0</v>
+        <v>787.32546509999975</v>
       </c>
       <c r="D164" s="0">
-        <v>0</v>
-      </c>
-      <c r="E164" s="0"/>
+        <v>4802.5036614999999</v>
+      </c>
+      <c r="E164" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="B165" s="0">
-        <v>0</v>
+        <v>328.00050940000074</v>
       </c>
       <c r="C165" s="0">
-        <v>0</v>
+        <v>787.32546400000047</v>
       </c>
       <c r="D165" s="0">
-        <v>0</v>
-      </c>
-      <c r="E165" s="0"/>
+        <v>4804.5041440000005</v>
+      </c>
+      <c r="E165" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="B166" s="0">
-        <v>0</v>
+        <v>329.99996720000036</v>
       </c>
       <c r="C166" s="0">
-        <v>0</v>
+        <v>787.32546499999989</v>
       </c>
       <c r="D166" s="0">
-        <v>0</v>
-      </c>
-      <c r="E166" s="0"/>
+        <v>4806.5036018000001</v>
+      </c>
+      <c r="E166" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="B167" s="0">
-        <v>0</v>
+        <v>331.9998499000003</v>
       </c>
       <c r="C167" s="0">
-        <v>0</v>
+        <v>787.32546520000005</v>
       </c>
       <c r="D167" s="0">
-        <v>0</v>
-      </c>
-      <c r="E167" s="0"/>
+        <v>4808.5034845</v>
+      </c>
+      <c r="E167" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="B168" s="0">
-        <v>0</v>
+        <v>333.99995970000055</v>
       </c>
       <c r="C168" s="0">
-        <v>0</v>
+        <v>787.32546500000035</v>
       </c>
       <c r="D168" s="0">
-        <v>0</v>
-      </c>
-      <c r="E168" s="0"/>
+        <v>4810.5035943000003</v>
+      </c>
+      <c r="E168" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="B169" s="0">
-        <v>0</v>
+        <v>335.99986530000024</v>
       </c>
       <c r="C169" s="0">
-        <v>0</v>
+        <v>787.32546509999975</v>
       </c>
       <c r="D169" s="0">
-        <v>0</v>
-      </c>
-      <c r="E169" s="0"/>
+        <v>4812.5034999</v>
+      </c>
+      <c r="E169" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="B170" s="0">
-        <v>0</v>
+        <v>337.9998486000004</v>
       </c>
       <c r="C170" s="0">
-        <v>0</v>
+        <v>787.32546540000021</v>
       </c>
       <c r="D170" s="0">
-        <v>0</v>
-      </c>
-      <c r="E170" s="0"/>
+        <v>4814.5034832000001</v>
+      </c>
+      <c r="E170" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="B171" s="0">
-        <v>0</v>
+        <v>339.99991440000031</v>
       </c>
       <c r="C171" s="0">
-        <v>0</v>
+        <v>787.32546460000003</v>
       </c>
       <c r="D171" s="0">
-        <v>0</v>
-      </c>
-      <c r="E171" s="0"/>
+        <v>4816.503549</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="B172" s="0">
-        <v>0</v>
+        <v>342.00003130000005</v>
       </c>
       <c r="C172" s="0">
-        <v>0</v>
+        <v>787.32546299999967</v>
       </c>
       <c r="D172" s="0">
-        <v>0</v>
-      </c>
-      <c r="E172" s="0"/>
+        <v>4818.5036658999998</v>
+      </c>
+      <c r="E172" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="B173" s="0">
-        <v>0</v>
+        <v>343.99993220000033</v>
       </c>
       <c r="C173" s="0">
-        <v>0</v>
+        <v>787.32546469999988</v>
       </c>
       <c r="D173" s="0">
-        <v>0</v>
-      </c>
-      <c r="E173" s="0"/>
+        <v>4820.5035668</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="B174" s="0">
-        <v>0</v>
+        <v>345.99994860000061</v>
       </c>
       <c r="C174" s="0">
-        <v>0</v>
+        <v>787.32546480000019</v>
       </c>
       <c r="D174" s="0">
-        <v>0</v>
-      </c>
-      <c r="E174" s="0"/>
+        <v>4822.5035832000003</v>
+      </c>
+      <c r="E174" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="B175" s="0">
-        <v>0</v>
+        <v>347.99991070000033</v>
       </c>
       <c r="C175" s="0">
-        <v>0</v>
+        <v>787.32546490000004</v>
       </c>
       <c r="D175" s="0">
-        <v>0</v>
-      </c>
-      <c r="E175" s="0"/>
+        <v>4824.5035453</v>
+      </c>
+      <c r="E175" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="B176" s="0">
-        <v>0</v>
+        <v>350.00011780000023</v>
       </c>
       <c r="C176" s="0">
-        <v>0</v>
+        <v>787.32546439999987</v>
       </c>
       <c r="D176" s="0">
-        <v>0</v>
-      </c>
-      <c r="E176" s="0"/>
+        <v>4826.5037523999999</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="B177" s="0">
-        <v>0</v>
+        <v>352.00053440000011</v>
       </c>
       <c r="C177" s="0">
-        <v>0</v>
+        <v>787.32546279999997</v>
       </c>
       <c r="D177" s="0">
-        <v>0</v>
-      </c>
-      <c r="E177" s="0"/>
+        <v>4828.5041689999998</v>
+      </c>
+      <c r="E177" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="B178" s="0">
-        <v>0</v>
+        <v>353.99983080000038</v>
       </c>
       <c r="C178" s="0">
-        <v>0</v>
+        <v>787.32546499999989</v>
       </c>
       <c r="D178" s="0">
-        <v>0</v>
-      </c>
-      <c r="E178" s="0"/>
+        <v>-4830.5034654000001</v>
+      </c>
+      <c r="E178" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="B179" s="0">
-        <v>0</v>
+        <v>355.99990160000016</v>
       </c>
       <c r="C179" s="0">
-        <v>0</v>
+        <v>787.32546539999976</v>
       </c>
       <c r="D179" s="0">
-        <v>0</v>
-      </c>
-      <c r="E179" s="0"/>
+        <v>-4832.5035361999999</v>
+      </c>
+      <c r="E179" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="B180" s="0">
-        <v>0</v>
+        <v>357.99979970000004</v>
       </c>
       <c r="C180" s="0">
-        <v>0</v>
+        <v>787.32546479999974</v>
       </c>
       <c r="D180" s="0">
-        <v>0</v>
-      </c>
-      <c r="E180" s="0"/>
+        <v>-4834.5034342999998</v>
+      </c>
+      <c r="E180" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="B181" s="0">
-        <v>0</v>
+        <v>359.99983080000038</v>
       </c>
       <c r="C181" s="0">
-        <v>0</v>
+        <v>787.32546039999988</v>
       </c>
       <c r="D181" s="0">
-        <v>0</v>
-      </c>
-      <c r="E181" s="0"/>
+        <v>-4836.5034654000001</v>
+      </c>
+      <c r="E181" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="B182" s="0">
-        <v>0</v>
+        <v>361.99981120000029</v>
       </c>
       <c r="C182" s="0">
-        <v>0</v>
+        <v>787.32546540000021</v>
       </c>
       <c r="D182" s="0">
-        <v>0</v>
-      </c>
-      <c r="E182" s="0"/>
+        <v>-4838.5034458</v>
+      </c>
+      <c r="E182" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="B183" s="0">
-        <v>0</v>
+        <v>363.99982559999989</v>
       </c>
       <c r="C183" s="0">
-        <v>0</v>
+        <v>787.32546429999957</v>
       </c>
       <c r="D183" s="0">
-        <v>0</v>
-      </c>
-      <c r="E183" s="0"/>
+        <v>-4840.5034601999996</v>
+      </c>
+      <c r="E183" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="B184" s="0">
-        <v>0</v>
+        <v>365.99981960000059</v>
       </c>
       <c r="C184" s="0">
-        <v>0</v>
+        <v>787.32546500000035</v>
       </c>
       <c r="D184" s="0">
-        <v>0</v>
-      </c>
-      <c r="E184" s="0"/>
+        <v>-4842.5034542000003</v>
+      </c>
+      <c r="E184" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="B185" s="0">
-        <v>0</v>
+        <v>367.99978340000052</v>
       </c>
       <c r="C185" s="0">
-        <v>0</v>
+        <v>787.32546540000021</v>
       </c>
       <c r="D185" s="0">
-        <v>0</v>
-      </c>
-      <c r="E185" s="0"/>
+        <v>-4844.5034180000002</v>
+      </c>
+      <c r="E185" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="B186" s="0">
-        <v>0</v>
+        <v>369.99983280000015</v>
       </c>
       <c r="C186" s="0">
-        <v>0</v>
+        <v>787.32546419999971</v>
       </c>
       <c r="D186" s="0">
-        <v>0</v>
-      </c>
-      <c r="E186" s="0"/>
+        <v>-4846.5034673999999</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="B187" s="0">
-        <v>0</v>
+        <v>371.99991640000007</v>
       </c>
       <c r="C187" s="0">
-        <v>0</v>
+        <v>787.32546409999986</v>
       </c>
       <c r="D187" s="0">
-        <v>0</v>
-      </c>
-      <c r="E187" s="0"/>
+        <v>-4848.5035509999998</v>
+      </c>
+      <c r="E187" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="B188" s="0">
-        <v>0</v>
+        <v>373.99985620000007</v>
       </c>
       <c r="C188" s="0">
-        <v>0</v>
+        <v>787.32546489999959</v>
       </c>
       <c r="D188" s="0">
-        <v>0</v>
-      </c>
-      <c r="E188" s="0"/>
+        <v>-4850.5034907999998</v>
+      </c>
+      <c r="E188" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B189" s="0">
-        <v>0</v>
+        <v>375.99984159999985</v>
       </c>
       <c r="C189" s="0">
-        <v>0</v>
+        <v>787.3254651999996</v>
       </c>
       <c r="D189" s="0">
-        <v>0</v>
-      </c>
-      <c r="E189" s="0"/>
+        <v>-4852.5034761999996</v>
+      </c>
+      <c r="E189" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="B190" s="0">
-        <v>0</v>
+        <v>377.99981670000034</v>
       </c>
       <c r="C190" s="0">
-        <v>0</v>
+        <v>787.32546490000004</v>
       </c>
       <c r="D190" s="0">
-        <v>0</v>
-      </c>
-      <c r="E190" s="0"/>
+        <v>-4854.5034513000001</v>
+      </c>
+      <c r="E190" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="B191" s="0">
-        <v>0</v>
+        <v>379.9998271000004</v>
       </c>
       <c r="C191" s="0">
-        <v>0</v>
+        <v>787.32546490000004</v>
       </c>
       <c r="D191" s="0">
-        <v>0</v>
-      </c>
-      <c r="E191" s="0"/>
+        <v>-4856.5034617000001</v>
+      </c>
+      <c r="E191" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="B192" s="0">
-        <v>0</v>
+        <v>381.99979710000025</v>
       </c>
       <c r="C192" s="0">
-        <v>0</v>
+        <v>787.32546529999991</v>
       </c>
       <c r="D192" s="0">
-        <v>0</v>
-      </c>
-      <c r="E192" s="0"/>
+        <v>-4858.5034317</v>
+      </c>
+      <c r="E192" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="B193" s="0">
-        <v>0</v>
+        <v>383.99986270000045</v>
       </c>
       <c r="C193" s="0">
-        <v>0</v>
+        <v>787.32546520000005</v>
       </c>
       <c r="D193" s="0">
-        <v>0</v>
-      </c>
-      <c r="E193" s="0"/>
+        <v>4860.5034973000002</v>
+      </c>
+      <c r="E193" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="B194" s="0">
-        <v>0</v>
+        <v>385.9999013000006</v>
       </c>
       <c r="C194" s="0">
-        <v>0</v>
+        <v>787.32546380000031</v>
       </c>
       <c r="D194" s="0">
-        <v>0</v>
-      </c>
-      <c r="E194" s="0"/>
+        <v>4862.5035359000003</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="B195" s="0">
-        <v>0</v>
+        <v>387.99987180000062</v>
       </c>
       <c r="C195" s="0">
-        <v>0</v>
+        <v>787.32546520000051</v>
       </c>
       <c r="D195" s="0">
-        <v>0</v>
-      </c>
-      <c r="E195" s="0"/>
+        <v>4864.5035064000003</v>
+      </c>
+      <c r="E195" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="B196" s="0">
-        <v>0</v>
+        <v>389.99989650000043</v>
       </c>
       <c r="C196" s="0">
-        <v>0</v>
+        <v>787.32546440000033</v>
       </c>
       <c r="D196" s="0">
-        <v>0</v>
-      </c>
-      <c r="E196" s="0"/>
+        <v>4866.5035311000001</v>
+      </c>
+      <c r="E196" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="B197" s="0">
-        <v>0</v>
+        <v>391.99982660000023</v>
       </c>
       <c r="C197" s="0">
-        <v>0</v>
+        <v>787.32546499999989</v>
       </c>
       <c r="D197" s="0">
-        <v>0</v>
-      </c>
-      <c r="E197" s="0"/>
+        <v>4868.5034611999999</v>
+      </c>
+      <c r="E197" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="B198" s="0">
-        <v>0</v>
+        <v>393.99990359999993</v>
       </c>
       <c r="C198" s="0">
-        <v>0</v>
+        <v>787.32546509999975</v>
       </c>
       <c r="D198" s="0">
-        <v>0</v>
-      </c>
-      <c r="E198" s="0"/>
+        <v>4870.5035381999996</v>
+      </c>
+      <c r="E198" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="B199" s="0">
-        <v>0</v>
+        <v>395.99997810000059</v>
       </c>
       <c r="C199" s="0">
-        <v>0</v>
+        <v>787.32546520000051</v>
       </c>
       <c r="D199" s="0">
-        <v>0</v>
-      </c>
-      <c r="E199" s="0"/>
+        <v>4872.5036127000003</v>
+      </c>
+      <c r="E199" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="B200" s="0">
-        <v>0</v>
+        <v>397.99990800000069</v>
       </c>
       <c r="C200" s="0">
-        <v>0</v>
+        <v>787.32546530000036</v>
       </c>
       <c r="D200" s="0">
-        <v>0</v>
-      </c>
-      <c r="E200" s="0"/>
+        <v>4874.5035426000004</v>
+      </c>
+      <c r="E200" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="B201" s="0">
-        <v>0</v>
+        <v>400.00019900000007</v>
       </c>
       <c r="C201" s="0">
-        <v>0</v>
+        <v>787.3254637</v>
       </c>
       <c r="D201" s="0">
-        <v>0</v>
-      </c>
-      <c r="E201" s="0"/>
+        <v>4876.5038335999998</v>
+      </c>
+      <c r="E201" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="B202" s="0">
-        <v>0</v>
+        <v>401.99988699999994</v>
       </c>
       <c r="C202" s="0">
-        <v>0</v>
+        <v>787.32546499999944</v>
       </c>
       <c r="D202" s="0">
-        <v>0</v>
-      </c>
-      <c r="E202" s="0"/>
+        <v>4878.5035215999997</v>
+      </c>
+      <c r="E202" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="B203" s="0">
-        <v>0</v>
+        <v>403.99995720000061</v>
       </c>
       <c r="C203" s="0">
-        <v>0</v>
+        <v>787.3254651000002</v>
       </c>
       <c r="D203" s="0">
-        <v>0</v>
-      </c>
-      <c r="E203" s="0"/>
+        <v>4880.5035918000003</v>
+      </c>
+      <c r="E203" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="B204" s="0">
-        <v>0</v>
+        <v>406.00215990000015</v>
       </c>
       <c r="C204" s="0">
-        <v>0</v>
+        <v>787.32546449999973</v>
       </c>
       <c r="D204" s="0">
-        <v>0</v>
-      </c>
-      <c r="E204" s="0"/>
+        <v>4882.5057944999999</v>
+      </c>
+      <c r="E204" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="B205" s="0">
-        <v>0</v>
+        <v>407.99982570000066</v>
       </c>
       <c r="C205" s="0">
-        <v>0</v>
+        <v>787.32546510000066</v>
       </c>
       <c r="D205" s="0">
-        <v>0</v>
-      </c>
-      <c r="E205" s="0"/>
+        <v>4884.5034603000004</v>
+      </c>
+      <c r="E205" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="B206" s="0">
-        <v>0</v>
+        <v>409.99982619999992</v>
       </c>
       <c r="C206" s="0">
-        <v>0</v>
+        <v>787.32546479999928</v>
       </c>
       <c r="D206" s="0">
-        <v>0</v>
-      </c>
-      <c r="E206" s="0"/>
+        <v>4886.5034607999996</v>
+      </c>
+      <c r="E206" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="B207" s="0">
-        <v>0</v>
+        <v>411.99993900000027</v>
       </c>
       <c r="C207" s="0">
-        <v>0</v>
+        <v>787.32546449999973</v>
       </c>
       <c r="D207" s="0">
-        <v>0</v>
-      </c>
-      <c r="E207" s="0"/>
+        <v>4888.5035736</v>
+      </c>
+      <c r="E207" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="B208" s="0">
-        <v>0</v>
+        <v>414.00009430000046</v>
       </c>
       <c r="C208" s="0">
-        <v>0</v>
+        <v>787.32546360000015</v>
       </c>
       <c r="D208" s="0">
-        <v>0</v>
-      </c>
-      <c r="E208" s="0"/>
+        <v>4890.5037289000002</v>
+      </c>
+      <c r="E208" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="B209" s="0">
-        <v>0</v>
+        <v>415.99987039999996</v>
       </c>
       <c r="C209" s="0">
-        <v>0</v>
+        <v>787.3254651999996</v>
       </c>
       <c r="D209" s="0">
-        <v>0</v>
-      </c>
-      <c r="E209" s="0"/>
+        <v>4892.5035049999997</v>
+      </c>
+      <c r="E209" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="B210" s="0">
-        <v>0</v>
+        <v>417.9998728999999</v>
       </c>
       <c r="C210" s="0">
-        <v>0</v>
+        <v>787.32546529999945</v>
       </c>
       <c r="D210" s="0">
-        <v>0</v>
-      </c>
-      <c r="E210" s="0"/>
+        <v>-4894.5035074999996</v>
+      </c>
+      <c r="E210" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="B211" s="0">
-        <v>0</v>
+        <v>419.99979729999995</v>
       </c>
       <c r="C211" s="0">
-        <v>0</v>
+        <v>787.32546529999945</v>
       </c>
       <c r="D211" s="0">
-        <v>0</v>
-      </c>
-      <c r="E211" s="0"/>
+        <v>-4896.5034318999997</v>
+      </c>
+      <c r="E211" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="B212" s="0">
-        <v>0</v>
+        <v>421.9998441000007</v>
       </c>
       <c r="C212" s="0">
-        <v>0</v>
+        <v>787.32546510000066</v>
       </c>
       <c r="D212" s="0">
-        <v>0</v>
-      </c>
-      <c r="E212" s="0"/>
+        <v>-4898.5034787000004</v>
+      </c>
+      <c r="E212" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="B213" s="0">
-        <v>0</v>
+        <v>423.99980060000053</v>
       </c>
       <c r="C213" s="0">
-        <v>0</v>
+        <v>787.32546559999992</v>
       </c>
       <c r="D213" s="0">
-        <v>0</v>
-      </c>
-      <c r="E213" s="0"/>
+        <v>-4900.5034352000002</v>
+      </c>
+      <c r="E213" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="B214" s="0">
-        <v>0</v>
+        <v>425.99977709999985</v>
       </c>
       <c r="C214" s="0">
-        <v>0</v>
+        <v>787.32546549999915</v>
       </c>
       <c r="D214" s="0">
-        <v>0</v>
-      </c>
-      <c r="E214" s="0"/>
+        <v>-4902.5034116999996</v>
+      </c>
+      <c r="E214" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="B215" s="0">
-        <v>0</v>
+        <v>427.99980610000057</v>
       </c>
       <c r="C215" s="0">
-        <v>0</v>
+        <v>787.32546530000036</v>
       </c>
       <c r="D215" s="0">
-        <v>0</v>
-      </c>
-      <c r="E215" s="0"/>
+        <v>-4904.5034407000003</v>
+      </c>
+      <c r="E215" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="B216" s="0">
-        <v>0</v>
+        <v>429.99982910000017</v>
       </c>
       <c r="C216" s="0">
-        <v>0</v>
+        <v>787.32546509999975</v>
       </c>
       <c r="D216" s="0">
-        <v>0</v>
-      </c>
-      <c r="E216" s="0"/>
+        <v>-4906.5034636999999</v>
+      </c>
+      <c r="E216" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="B217" s="0">
-        <v>0</v>
+        <v>431.99979460000031</v>
       </c>
       <c r="C217" s="0">
-        <v>0</v>
+        <v>787.3254651999996</v>
       </c>
       <c r="D217" s="0">
-        <v>0</v>
-      </c>
-      <c r="E217" s="0"/>
+        <v>-4908.5034292</v>
+      </c>
+      <c r="E217" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="B218" s="0">
-        <v>0</v>
+        <v>433.99979560000065</v>
       </c>
       <c r="C218" s="0">
-        <v>0</v>
+        <v>787.32546540000021</v>
       </c>
       <c r="D218" s="0">
-        <v>0</v>
-      </c>
-      <c r="E218" s="0"/>
+        <v>-4910.5034302000004</v>
+      </c>
+      <c r="E218" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="B219" s="0">
-        <v>0</v>
+        <v>435.99980330000017</v>
       </c>
       <c r="C219" s="0">
-        <v>0</v>
+        <v>787.32546540000021</v>
       </c>
       <c r="D219" s="0">
-        <v>0</v>
-      </c>
-      <c r="E219" s="0"/>
+        <v>-4912.5034378999999</v>
+      </c>
+      <c r="E219" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="B220" s="0">
-        <v>0</v>
+        <v>437.99978030000057</v>
       </c>
       <c r="C220" s="0">
-        <v>0</v>
+        <v>787.32546490000004</v>
       </c>
       <c r="D220" s="0">
-        <v>0</v>
-      </c>
-      <c r="E220" s="0"/>
+        <v>-4914.5034149000003</v>
+      </c>
+      <c r="E220" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="B221" s="0">
-        <v>0</v>
+        <v>439.99983590000011</v>
       </c>
       <c r="C221" s="0">
-        <v>0</v>
+        <v>787.3254651999996</v>
       </c>
       <c r="D221" s="0">
-        <v>0</v>
-      </c>
-      <c r="E221" s="0"/>
+        <v>-4916.5034704999998</v>
+      </c>
+      <c r="E221" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="B222" s="0">
-        <v>0</v>
+        <v>441.9998513999999</v>
       </c>
       <c r="C222" s="0">
-        <v>0</v>
+        <v>787.32546469999943</v>
       </c>
       <c r="D222" s="0">
-        <v>0</v>
-      </c>
-      <c r="E222" s="0"/>
+        <v>-4918.5034859999996</v>
+      </c>
+      <c r="E222" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="B223" s="0">
-        <v>0</v>
+        <v>443.99989450000066</v>
       </c>
       <c r="C223" s="0">
-        <v>0</v>
+        <v>787.32546450000063</v>
       </c>
       <c r="D223" s="0">
-        <v>0</v>
-      </c>
-      <c r="E223" s="0"/>
+        <v>-4920.5035291000004</v>
+      </c>
+      <c r="E223" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="B224" s="0">
-        <v>0</v>
+        <v>445.99976969999989</v>
       </c>
       <c r="C224" s="0">
-        <v>0</v>
+        <v>787.32546549999915</v>
       </c>
       <c r="D224" s="0">
-        <v>0</v>
-      </c>
-      <c r="E224" s="0"/>
+        <v>-4922.5034042999996</v>
+      </c>
+      <c r="E224" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="B225" s="0">
-        <v>0</v>
+        <v>447.99990030000026</v>
       </c>
       <c r="C225" s="0">
-        <v>0</v>
+        <v>787.32546540000021</v>
       </c>
       <c r="D225" s="0">
-        <v>0</v>
-      </c>
-      <c r="E225" s="0"/>
+        <v>4924.5035349</v>
+      </c>
+      <c r="E225" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="B226" s="0">
-        <v>0</v>
+        <v>450.00241920000008</v>
       </c>
       <c r="C226" s="0">
-        <v>0</v>
+        <v>787.32546480000019</v>
       </c>
       <c r="D226" s="0">
-        <v>0</v>
-      </c>
-      <c r="E226" s="0"/>
+        <v>4926.5060537999998</v>
+      </c>
+      <c r="E226" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="B227" s="0">
-        <v>0</v>
+        <v>451.99988320000011</v>
       </c>
       <c r="C227" s="0">
-        <v>0</v>
+        <v>787.32546569999977</v>
       </c>
       <c r="D227" s="0">
-        <v>0</v>
-      </c>
-      <c r="E227" s="0"/>
+        <v>4928.5035177999998</v>
+      </c>
+      <c r="E227" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="B228" s="0">
-        <v>0</v>
+        <v>453.99986970000009</v>
       </c>
       <c r="C228" s="0">
-        <v>0</v>
+        <v>787.32546459999958</v>
       </c>
       <c r="D228" s="0">
-        <v>0</v>
-      </c>
-      <c r="E228" s="0"/>
+        <v>4930.5035042999998</v>
+      </c>
+      <c r="E228" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="B229" s="0">
-        <v>0</v>
+        <v>455.99986790000003</v>
       </c>
       <c r="C229" s="0">
-        <v>0</v>
+        <v>787.32546490000004</v>
       </c>
       <c r="D229" s="0">
-        <v>0</v>
-      </c>
-      <c r="E229" s="0"/>
+        <v>4932.5035024999997</v>
+      </c>
+      <c r="E229" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="B230" s="0">
-        <v>0</v>
+        <v>457.99988459999986</v>
       </c>
       <c r="C230" s="0">
-        <v>0</v>
+        <v>787.32546469999943</v>
       </c>
       <c r="D230" s="0">
-        <v>0</v>
-      </c>
-      <c r="E230" s="0"/>
+        <v>4934.5035191999996</v>
+      </c>
+      <c r="E230" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="B231" s="0">
-        <v>0</v>
+        <v>460.00011610000001</v>
       </c>
       <c r="C231" s="0">
-        <v>0</v>
+        <v>787.32546339999953</v>
       </c>
       <c r="D231" s="0">
-        <v>0</v>
-      </c>
-      <c r="E231" s="0"/>
+        <v>4936.5037506999997</v>
+      </c>
+      <c r="E231" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="B232" s="0">
-        <v>0</v>
+        <v>461.99997530000019</v>
       </c>
       <c r="C232" s="0">
-        <v>0</v>
+        <v>787.32546499999989</v>
       </c>
       <c r="D232" s="0">
-        <v>0</v>
-      </c>
-      <c r="E232" s="0"/>
+        <v>4938.5036098999999</v>
+      </c>
+      <c r="E232" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="B233" s="0">
-        <v>0</v>
+        <v>463.99991200000022</v>
       </c>
       <c r="C233" s="0">
-        <v>0</v>
+        <v>787.32546530000036</v>
       </c>
       <c r="D233" s="0">
-        <v>0</v>
-      </c>
-      <c r="E233" s="0"/>
+        <v>4940.5035465999999</v>
+      </c>
+      <c r="E233" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="B234" s="0">
-        <v>0</v>
+        <v>466.00010520000069</v>
       </c>
       <c r="C234" s="0">
-        <v>0</v>
+        <v>787.32546340000044</v>
       </c>
       <c r="D234" s="0">
-        <v>0</v>
-      </c>
-      <c r="E234" s="0"/>
+        <v>4942.5037398000004</v>
+      </c>
+      <c r="E234" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="B235" s="0">
-        <v>0</v>
+        <v>468.00047760000052</v>
       </c>
       <c r="C235" s="0">
-        <v>0</v>
+        <v>787.32546360000015</v>
       </c>
       <c r="D235" s="0">
-        <v>0</v>
-      </c>
-      <c r="E235" s="0"/>
+        <v>4944.5041122000002</v>
+      </c>
+      <c r="E235" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="B236" s="0">
-        <v>0</v>
+        <v>470.00008510000043</v>
       </c>
       <c r="C236" s="0">
-        <v>0</v>
+        <v>787.32546319999983</v>
       </c>
       <c r="D236" s="0">
-        <v>0</v>
-      </c>
-      <c r="E236" s="0"/>
+        <v>4946.5037197000001</v>
+      </c>
+      <c r="E236" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="B237" s="0">
-        <v>0</v>
+        <v>471.99997760000042</v>
       </c>
       <c r="C237" s="0">
-        <v>0</v>
+        <v>787.32546520000051</v>
       </c>
       <c r="D237" s="0">
-        <v>0</v>
-      </c>
-      <c r="E237" s="0"/>
+        <v>4948.5036122000001</v>
+      </c>
+      <c r="E237" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="B238" s="0">
-        <v>0</v>
+        <v>473.99995180000042</v>
       </c>
       <c r="C238" s="0">
-        <v>0</v>
+        <v>787.32546480000019</v>
       </c>
       <c r="D238" s="0">
-        <v>0</v>
-      </c>
-      <c r="E238" s="0"/>
+        <v>4950.5035864000001</v>
+      </c>
+      <c r="E238" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="B239" s="0">
-        <v>0</v>
+        <v>475.99992960000054</v>
       </c>
       <c r="C239" s="0">
-        <v>0</v>
+        <v>787.32546470000034</v>
       </c>
       <c r="D239" s="0">
-        <v>0</v>
-      </c>
-      <c r="E239" s="0"/>
+        <v>4952.5035642000003</v>
+      </c>
+      <c r="E239" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="B240" s="0">
-        <v>0</v>
+        <v>477.99991240000054</v>
       </c>
       <c r="C240" s="0">
-        <v>0</v>
+        <v>787.32546499999989</v>
       </c>
       <c r="D240" s="0">
-        <v>0</v>
-      </c>
-      <c r="E240" s="0"/>
+        <v>4954.5035470000003</v>
+      </c>
+      <c r="E240" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="B241" s="0">
-        <v>0</v>
+        <v>479.99990239999988</v>
       </c>
       <c r="C241" s="0">
-        <v>0</v>
+        <v>787.32546499999989</v>
       </c>
       <c r="D241" s="0">
-        <v>0</v>
-      </c>
-      <c r="E241" s="0"/>
+        <v>4956.5035369999996</v>
+      </c>
+      <c r="E241" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="B242" s="0">
-        <v>0</v>
+        <v>481.99982900000032</v>
       </c>
       <c r="C242" s="0">
-        <v>0</v>
+        <v>787.32546540000021</v>
       </c>
       <c r="D242" s="0">
-        <v>0</v>
-      </c>
-      <c r="E242" s="0"/>
+        <v>-4958.5034636</v>
+      </c>
+      <c r="E242" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="B243" s="0">
-        <v>0</v>
+        <v>483.99983500000053</v>
       </c>
       <c r="C243" s="0">
-        <v>0</v>
+        <v>787.32546490000004</v>
       </c>
       <c r="D243" s="0">
-        <v>0</v>
-      </c>
-      <c r="E243" s="0"/>
+        <v>-4960.5034696000002</v>
+      </c>
+      <c r="E243" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="B244" s="0">
-        <v>0</v>
+        <v>485.99979830000029</v>
       </c>
       <c r="C244" s="0">
-        <v>0</v>
+        <v>787.32546069999989</v>
       </c>
       <c r="D244" s="0">
-        <v>0</v>
-      </c>
-      <c r="E244" s="0"/>
+        <v>-4962.5034329</v>
+      </c>
+      <c r="E244" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="B245" s="0">
-        <v>0</v>
+        <v>487.99979030000031</v>
       </c>
       <c r="C245" s="0">
-        <v>0</v>
+        <v>787.32546579999962</v>
       </c>
       <c r="D245" s="0">
-        <v>0</v>
-      </c>
-      <c r="E245" s="0"/>
+        <v>-4964.5034249</v>
+      </c>
+      <c r="E245" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="B246" s="0">
-        <v>0</v>
+        <v>489.99976800000059</v>
       </c>
       <c r="C246" s="0">
-        <v>0</v>
+        <v>787.32546559999992</v>
       </c>
       <c r="D246" s="0">
-        <v>0</v>
-      </c>
-      <c r="E246" s="0"/>
+        <v>-4966.5034026000003</v>
+      </c>
+      <c r="E246" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="B247" s="0">
-        <v>0</v>
+        <v>491.99986660000013</v>
       </c>
       <c r="C247" s="0">
-        <v>0</v>
+        <v>787.32546529999945</v>
       </c>
       <c r="D247" s="0">
-        <v>0</v>
-      </c>
-      <c r="E247" s="0"/>
+        <v>-4968.5035011999998</v>
+      </c>
+      <c r="E247" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="B248" s="0">
-        <v>0</v>
+        <v>493.99975930000073</v>
       </c>
       <c r="C248" s="0">
-        <v>0</v>
+        <v>787.32546010000078</v>
       </c>
       <c r="D248" s="0">
-        <v>0</v>
-      </c>
-      <c r="E248" s="0"/>
+        <v>-4970.5033939000004</v>
+      </c>
+      <c r="E248" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="B249" s="0">
-        <v>0</v>
+        <v>495.99982180000006</v>
       </c>
       <c r="C249" s="0">
-        <v>0</v>
+        <v>787.32546559999992</v>
       </c>
       <c r="D249" s="0">
-        <v>0</v>
-      </c>
-      <c r="E249" s="0"/>
+        <v>-4972.5034563999998</v>
+      </c>
+      <c r="E249" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="B250" s="0">
-        <v>0</v>
+        <v>497.99976169999991</v>
       </c>
       <c r="C250" s="0">
-        <v>0</v>
+        <v>787.3254651999996</v>
       </c>
       <c r="D250" s="0">
-        <v>0</v>
-      </c>
-      <c r="E250" s="0"/>
+        <v>-4974.5033962999996</v>
+      </c>
+      <c r="E250" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="B251" s="0">
-        <v>0</v>
+        <v>499.99978510000074</v>
       </c>
       <c r="C251" s="0">
-        <v>0</v>
+        <v>787.32546520000051</v>
       </c>
       <c r="D251" s="0">
-        <v>0</v>
-      </c>
-      <c r="E251" s="0"/>
+        <v>-4976.5034197000004</v>
+      </c>
+      <c r="E251" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="B252" s="0">
-        <v>0</v>
+        <v>501.9998413000003</v>
       </c>
       <c r="C252" s="0">
-        <v>0</v>
+        <v>787.32546499999989</v>
       </c>
       <c r="D252" s="0">
-        <v>0</v>
-      </c>
-      <c r="E252" s="0"/>
+        <v>-4978.5034759</v>
+      </c>
+      <c r="E252" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="B253" s="0">
-        <v>0</v>
+        <v>503.99979810000059</v>
       </c>
       <c r="C253" s="0">
-        <v>0</v>
+        <v>787.32546540000021</v>
       </c>
       <c r="D253" s="0">
-        <v>0</v>
-      </c>
-      <c r="E253" s="0"/>
+        <v>-4980.5034327000003</v>
+      </c>
+      <c r="E253" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="B254" s="0">
-        <v>0</v>
+        <v>505.99977360000048</v>
       </c>
       <c r="C254" s="0">
-        <v>0</v>
+        <v>787.32546520000051</v>
       </c>
       <c r="D254" s="0">
-        <v>0</v>
-      </c>
-      <c r="E254" s="0"/>
+        <v>-4982.5034082000002</v>
+      </c>
+      <c r="E254" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="B255" s="0">
-        <v>0</v>
+        <v>507.99986669999998</v>
       </c>
       <c r="C255" s="0">
-        <v>0</v>
+        <v>787.32546430000002</v>
       </c>
       <c r="D255" s="0">
-        <v>0</v>
-      </c>
-      <c r="E255" s="0"/>
+        <v>-4984.5035012999997</v>
+      </c>
+      <c r="E255" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="B256" s="0">
-        <v>0</v>
+        <v>509.99994010000046</v>
       </c>
       <c r="C256" s="0">
-        <v>0</v>
+        <v>787.32546470000034</v>
       </c>
       <c r="D256" s="0">
-        <v>0</v>
-      </c>
-      <c r="E256" s="0"/>
+        <v>-4986.5035747000002</v>
+      </c>
+      <c r="E256" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="B257" s="0">
-        <v>0</v>
+        <v>512.00020670000049</v>
       </c>
       <c r="C257" s="0">
-        <v>0</v>
+        <v>3689.1783228000004</v>
       </c>
       <c r="D257" s="0">
-        <v>0</v>
-      </c>
-      <c r="E257" s="0"/>
+        <v>4988.5038413000002</v>
+      </c>
+      <c r="E257" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
